--- a/genshin/461448266927016619_2020-11-25_12-14-57.xlsx
+++ b/genshin/461448266927016619_2020-11-25_12-14-57.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -565,10 +581,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2020-12-17 17:07:39</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44182.71364583333</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -632,10 +646,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2020-12-12 01:46:01</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44177.07362268519</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
@@ -711,10 +723,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2020-12-07 22:36:51</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44172.94225694444</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -782,10 +792,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2020-11-29 23:11:22</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44164.96622685185</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -853,10 +861,8 @@
           <t>3759546621</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2020-11-29 14:19:43</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44164.59702546296</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -916,10 +922,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2020-11-29 12:19:06</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44164.51326388889</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -987,10 +991,8 @@
           <t>3756096673</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2020-11-28 17:10:59</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44163.71596064815</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1054,10 +1056,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2020-11-28 16:32:01</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44163.68890046296</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1117,10 +1117,8 @@
           <t>3755691674</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2020-11-28 15:03:09</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44163.6271875</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1192,10 +1190,8 @@
           <t>3753268374</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2020-11-27 21:38:52</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44162.90199074074</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1263,10 +1259,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2020-11-27 17:27:30</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44162.72743055555</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1342,10 +1336,8 @@
           <t>3752048681</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2020-11-27 16:17:34</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44162.67886574074</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1418,10 +1410,8 @@
           <t>3744709085</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2020-11-27 16:05:53</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44162.67075231481</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1485,10 +1475,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2020-11-27 13:14:57</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44162.55204861111</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1564,10 +1552,8 @@
           <t>3745029795</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2020-11-27 00:00:08</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44162.00009259259</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1635,10 +1621,8 @@
           <t>3744912971</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2020-11-26 19:37:58</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44161.81803240741</v>
       </c>
       <c r="I17" t="n">
         <v>1</v>
@@ -1706,10 +1690,8 @@
           <t>3744912971</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2020-11-26 18:40:40</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44161.77824074074</v>
       </c>
       <c r="I18" t="n">
         <v>1</v>
@@ -1773,10 +1755,8 @@
           <t>3744912971</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2020-11-26 18:39:23</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44161.77734953703</v>
       </c>
       <c r="I19" t="n">
         <v>1</v>
@@ -1840,10 +1820,8 @@
           <t>3744912971</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2020-11-26 18:21:00</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44161.76458333333</v>
       </c>
       <c r="I20" t="n">
         <v>1</v>
@@ -1912,10 +1890,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2020-11-26 13:49:25</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44161.5759837963</v>
       </c>
       <c r="I21" t="n">
         <v>1</v>
@@ -1987,10 +1963,8 @@
           <t>3744745642</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2020-11-26 12:22:27</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44161.51559027778</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2050,10 +2024,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2020-11-26 10:48:00</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44161.45</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2113,10 +2085,8 @@
           <t>3744912971</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2020-11-26 09:07:42</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44161.38034722222</v>
       </c>
       <c r="I24" t="n">
         <v>1</v>
@@ -2180,10 +2150,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2020-11-26 09:05:28</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44161.3787962963</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2247,10 +2215,8 @@
           <t>3747386486</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2020-11-26 05:16:30</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44161.21979166667</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2315,10 +2281,8 @@
           <t>3747381593</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2020-11-26 05:13:15</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44161.21753472222</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2382,10 +2346,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2020-11-26 02:52:43</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44161.11994212963</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2463,10 +2425,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2020-11-26 01:34:08</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44161.06537037037</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2538,10 +2498,8 @@
           <t>3744696848</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2020-11-26 01:12:48</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44161.05055555556</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2613,10 +2571,8 @@
           <t>3744696848</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2020-11-26 01:12:35</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44161.0504050926</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2688,10 +2644,8 @@
           <t>3744886302</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2020-11-26 00:36:55</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44161.02563657407</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2776,10 +2730,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2020-11-26 00:19:18</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44161.01340277777</v>
       </c>
       <c r="I33" t="n">
         <v>2</v>
@@ -2849,10 +2801,8 @@
           <t>3745958078</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2020-11-26 00:17:28</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44161.01212962963</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2921,10 +2871,8 @@
           <t>3746918110</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2020-11-25 23:42:28</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44160.98782407407</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -2996,10 +2944,8 @@
           <t>3746888808</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2020-11-25 23:35:16</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44160.98282407408</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3063,10 +3009,8 @@
           <t>3744709085</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2020-11-25 23:22:34</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44160.97400462963</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3138,10 +3082,8 @@
           <t>3744912971</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2020-11-25 22:38:47</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44160.94359953704</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3216,10 +3158,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2020-11-25 22:29:43</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44160.93730324074</v>
       </c>
       <c r="I39" t="n">
         <v>2</v>
@@ -3287,10 +3227,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2020-11-25 22:17:25</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44160.92876157408</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3362,10 +3300,8 @@
           <t>3744912971</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2020-11-25 22:10:20</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44160.92384259259</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3441,10 +3377,8 @@
           <t>3744886302</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2020-11-25 21:54:31</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44160.9128587963</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3508,10 +3442,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2020-11-25 21:52:49</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44160.91167824074</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3579,10 +3511,8 @@
           <t>3746198822</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2020-11-25 21:28:25</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44160.8947337963</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3650,10 +3580,8 @@
           <t>3746359922</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2020-11-25 21:27:47</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44160.89429398148</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3729,10 +3657,8 @@
           <t>3744712241</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2020-11-25 20:54:48</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44160.87138888889</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3796,10 +3722,8 @@
           <t>3746099597</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2020-11-25 20:45:52</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44160.86518518518</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3867,10 +3791,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2020-11-25 20:44:08</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44160.86398148148</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -3934,10 +3856,8 @@
           <t>3746198822</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2020-11-25 20:43:25</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44160.8634837963</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -4009,10 +3929,8 @@
           <t>3746196492</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2020-11-25 20:41:29</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44160.8621412037</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4084,10 +4002,8 @@
           <t>3746184149</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2020-11-25 20:39:31</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44160.86077546296</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4151,10 +4067,8 @@
           <t>3746010458</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2020-11-25 20:34:55</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44160.85758101852</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4230,10 +4144,8 @@
           <t>3744709085</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2020-11-25 20:27:26</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44160.85238425926</v>
       </c>
       <c r="I53" t="n">
         <v>1</v>
@@ -4297,10 +4209,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2020-11-25 20:18:58</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44160.84650462963</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4368,10 +4278,8 @@
           <t>3746099597</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2020-11-25 20:15:26</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44160.84405092592</v>
       </c>
       <c r="I55" t="n">
         <v>1</v>
@@ -4443,10 +4351,8 @@
           <t>3746077909</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2020-11-25 20:09:52</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44160.84018518519</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4518,10 +4424,8 @@
           <t>3746010458</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2020-11-25 19:49:44</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44160.82620370371</v>
       </c>
       <c r="I57" t="n">
         <v>1</v>
@@ -4593,10 +4497,8 @@
           <t>3744886302</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2020-11-25 19:44:42</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44160.82270833333</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4664,10 +4566,8 @@
           <t>3745958078</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2020-11-25 19:37:02</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44160.81738425926</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4731,10 +4631,8 @@
           <t>3744843626</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2020-11-25 19:25:41</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44160.80950231481</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4802,10 +4700,8 @@
           <t>3745915727</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2020-11-25 19:23:57</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44160.80829861111</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4881,10 +4777,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2020-11-25 19:16:15</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44160.80295138889</v>
       </c>
       <c r="I62" t="n">
         <v>1</v>
@@ -4960,10 +4854,8 @@
           <t>3744912971</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2020-11-25 19:03:52</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44160.79435185185</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5027,10 +4919,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2020-11-25 19:00:35</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44160.79207175926</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5094,10 +4984,8 @@
           <t>3745803704</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2020-11-25 18:55:19</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44160.78841435185</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5165,10 +5053,8 @@
           <t>3744912971</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2020-11-25 18:45:53</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44160.78186342592</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5244,10 +5130,8 @@
           <t>3745758910</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2020-11-25 18:43:25</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44160.78015046296</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5315,10 +5199,8 @@
           <t>3744696848</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2020-11-25 18:40:36</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44160.77819444444</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5390,10 +5272,8 @@
           <t>3744696848</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2020-11-25 18:34:55</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44160.77424768519</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5470,10 +5350,8 @@
           <t>3744912971</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2020-11-25 18:31:16</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44160.77171296296</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -5537,10 +5415,8 @@
           <t>3745708817</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2020-11-25 18:31:13</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44160.77167824074</v>
       </c>
       <c r="I71" t="n">
         <v>1</v>
@@ -5604,10 +5480,8 @@
           <t>3744718868</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2020-11-25 18:30:19</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44160.77105324074</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -5683,10 +5557,8 @@
           <t>3744912971</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2020-11-25 18:29:23</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44160.77040509259</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5750,10 +5622,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2020-11-25 18:28:16</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44160.76962962963</v>
       </c>
       <c r="I74" t="n">
         <v>1</v>
@@ -5821,10 +5691,8 @@
           <t>3744912971</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2020-11-25 18:28:03</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44160.76947916667</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -5889,10 +5757,8 @@
           <t>3744718868</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2020-11-25 18:21:04</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44160.76462962963</v>
       </c>
       <c r="I76" t="n">
         <v>1</v>
@@ -5960,10 +5826,8 @@
           <t>3744912971</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2020-11-25 18:20:55</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44160.76452546296</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6031,10 +5895,8 @@
           <t>3744912971</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2020-11-25 18:19:56</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44160.76384259259</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6102,10 +5964,8 @@
           <t>3745011988</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2020-11-25 18:17:59</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44160.76248842593</v>
       </c>
       <c r="I79" t="n">
         <v>1</v>
@@ -6178,10 +6038,8 @@
           <t>3744696848</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2020-11-25 18:12:51</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44160.75892361111</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6253,10 +6111,8 @@
           <t>3744696848</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2020-11-25 18:12:32</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44160.7587037037</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -6328,10 +6184,8 @@
           <t>3745619961</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2020-11-25 18:07:43</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44160.7553587963</v>
       </c>
       <c r="I82" t="n">
         <v>1</v>
@@ -6403,10 +6257,8 @@
           <t>3745605930</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2020-11-25 18:00:37</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44160.75042824074</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6474,10 +6326,8 @@
           <t>3744912971</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2020-11-25 17:58:02</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44160.74863425926</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6553,10 +6403,8 @@
           <t>3745574287</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2020-11-25 17:54:47</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44160.74637731481</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6624,10 +6472,8 @@
           <t>3745569090</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2020-11-25 17:52:16</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44160.74462962963</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -6704,10 +6550,8 @@
           <t>3745549819</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2020-11-25 17:46:19</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44160.74049768518</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -6779,10 +6623,8 @@
           <t>3744696047</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2020-11-25 17:32:34</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44160.73094907407</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -6846,10 +6688,8 @@
           <t>3745490898</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2020-11-25 17:25:32</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44160.72606481481</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -6925,10 +6765,8 @@
           <t>3744873168</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2020-11-25 17:21:56</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44160.72356481481</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -6997,10 +6835,8 @@
           <t>3745468059</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2020-11-25 17:20:39</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44160.72267361111</v>
       </c>
       <c r="I91" t="n">
         <v>1</v>
@@ -7071,10 +6907,8 @@
           <t>3745441406</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2020-11-25 17:08:16</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44160.71407407407</v>
       </c>
       <c r="I92" t="n">
         <v>2</v>
@@ -7138,10 +6972,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2020-11-25 17:05:28</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44160.71212962963</v>
       </c>
       <c r="I93" t="n">
         <v>2</v>
@@ -7218,10 +7050,8 @@
           <t>3745416483</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2020-11-25 17:00:22</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44160.70858796296</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -7285,10 +7115,8 @@
           <t>3744935922</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2020-11-25 16:56:31</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44160.70591435185</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -7365,10 +7193,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2020-11-25 16:56:22</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44160.70581018519</v>
       </c>
       <c r="I96" t="n">
         <v>1</v>
@@ -7444,10 +7270,8 @@
           <t>3744753804</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2020-11-25 16:54:10</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44160.70428240741</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7524,10 +7348,8 @@
           <t>3744912971</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2020-11-25 16:50:43</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44160.70188657408</v>
       </c>
       <c r="I98" t="n">
         <v>2</v>
@@ -7595,10 +7417,8 @@
           <t>3745378641</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2020-11-25 16:47:52</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44160.6999074074</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -7670,10 +7490,8 @@
           <t>3744886302</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2020-11-25 16:45:52</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44160.69851851852</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -7749,10 +7567,8 @@
           <t>3745368883</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2020-11-25 16:43:09</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44160.69663194445</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -7824,10 +7640,8 @@
           <t>3745361601</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2020-11-25 16:39:31</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44160.6941087963</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -7899,10 +7713,8 @@
           <t>3744782412</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2020-11-25 16:38:26</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44160.69335648148</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -7962,10 +7774,8 @@
           <t>3745162311</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2020-11-25 16:37:19</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44160.69258101852</v>
       </c>
       <c r="I104" t="n">
         <v>1</v>
@@ -8029,10 +7839,8 @@
           <t>3744782412</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2020-11-25 16:37:04</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44160.6924074074</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -8100,10 +7908,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2020-11-25 16:32:44</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44160.68939814815</v>
       </c>
       <c r="I106" t="n">
         <v>1</v>
@@ -8167,10 +7973,8 @@
           <t>3745338233</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2020-11-25 16:30:19</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44160.68771990741</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -8238,10 +8042,8 @@
           <t>3745270359</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2020-11-25 16:27:59</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44160.68609953704</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -8317,10 +8119,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2020-11-25 16:25:40</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44160.68449074074</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8392,10 +8192,8 @@
           <t>3744705774</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2020-11-25 16:24:45</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44160.68385416667</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -8459,10 +8257,8 @@
           <t>3744718868</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2020-11-25 16:24:18</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44160.68354166667</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -8530,10 +8326,8 @@
           <t>3745006849</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2020-11-25 16:23:17</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44160.68283564815</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -8601,10 +8395,8 @@
           <t>3745006849</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2020-11-25 16:22:43</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44160.68244212963</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -8676,10 +8468,8 @@
           <t>3745011988</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2020-11-25 16:22:04</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44160.68199074074</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8747,10 +8537,8 @@
           <t>3745006849</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2020-11-25 16:21:51</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44160.68184027778</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -8818,10 +8606,8 @@
           <t>3744762913</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2020-11-25 16:18:05</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44160.67922453704</v>
       </c>
       <c r="I116" t="n">
         <v>1</v>
@@ -8889,10 +8675,8 @@
           <t>3745006849</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2020-11-25 16:15:13</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44160.6772337963</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -8964,10 +8748,8 @@
           <t>3745298129</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2020-11-25 16:15:13</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44160.6772337963</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
@@ -9043,10 +8825,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2020-11-25 16:13:42</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44160.67618055556</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -9114,10 +8894,8 @@
           <t>3744720146</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2020-11-25 16:13:06</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44160.67576388889</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -9185,10 +8963,8 @@
           <t>3744717518</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2020-11-25 16:12:39</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44160.67545138889</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -9256,10 +9032,8 @@
           <t>3744912971</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2020-11-25 16:12:25</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44160.67528935185</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -9323,10 +9097,8 @@
           <t>3744912971</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2020-11-25 16:11:18</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44160.67451388889</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9390,10 +9162,8 @@
           <t>3745291128</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2020-11-25 16:08:19</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44160.67244212963</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -9465,10 +9235,8 @@
           <t>3744698155</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2020-11-25 16:06:36</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44160.67125</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -9536,10 +9304,8 @@
           <t>3745280994</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2020-11-25 16:06:34</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44160.67122685185</v>
       </c>
       <c r="I126" t="n">
         <v>1</v>
@@ -9607,10 +9373,8 @@
           <t>3744697985</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2020-11-25 16:01:21</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44160.66760416667</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -9678,10 +9442,8 @@
           <t>3745270359</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2020-11-25 15:59:28</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44160.66629629629</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -9749,10 +9511,8 @@
           <t>3745263726</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2020-11-25 15:58:24</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44160.66555555556</v>
       </c>
       <c r="I129" t="n">
         <v>1</v>
@@ -9824,10 +9584,8 @@
           <t>3745258486</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2020-11-25 15:57:07</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44160.66466435185</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -9899,10 +9657,8 @@
           <t>3745251971</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2020-11-25 15:54:41</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44160.66297453704</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -9966,10 +9722,8 @@
           <t>3745255490</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2020-11-25 15:53:17</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44160.66200231481</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -10033,10 +9787,8 @@
           <t>3744718868</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2020-11-25 15:52:47</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44160.66165509259</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -10112,10 +9864,8 @@
           <t>3745249231</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2020-11-25 15:52:19</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44160.66133101852</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -10188,10 +9938,8 @@
           <t>3745247382</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2020-11-25 15:49:51</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44160.65961805556</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -10259,10 +10007,8 @@
           <t>3745241787</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2020-11-25 15:48:30</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44160.65868055556</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -10330,10 +10076,8 @@
           <t>3744820004</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2020-11-25 15:48:18</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44160.65854166666</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -10401,10 +10145,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2020-11-25 15:44:28</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44160.65587962963</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
@@ -10464,10 +10206,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2020-11-25 15:44:06</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44160.655625</v>
       </c>
       <c r="I139" t="n">
         <v>1</v>
@@ -10536,10 +10276,8 @@
           <t>3745225497</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2020-11-25 15:40:26</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44160.6530787037</v>
       </c>
       <c r="I140" t="n">
         <v>1</v>
@@ -10615,10 +10353,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2020-11-25 15:39:11</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44160.65221064815</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -10682,10 +10418,8 @@
           <t>3745209605</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2020-11-25 15:37:35</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44160.65109953703</v>
       </c>
       <c r="I142" t="n">
         <v>2</v>
@@ -10761,10 +10495,8 @@
           <t>3745209598</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2020-11-25 15:37:34</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44160.65108796296</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -10841,10 +10573,8 @@
           <t>3745217150</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2020-11-25 15:36:14</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44160.65016203704</v>
       </c>
       <c r="I144" t="n">
         <v>1</v>
@@ -10920,10 +10650,8 @@
           <t>3745215217</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2020-11-25 15:33:52</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44160.64851851852</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
@@ -10983,10 +10711,8 @@
           <t>3745206805</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2020-11-25 15:33:50</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44160.64849537037</v>
       </c>
       <c r="I146" t="n">
         <v>1</v>
@@ -11062,10 +10788,8 @@
           <t>3745202983</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2020-11-25 15:31:02</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44160.64655092593</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
@@ -11137,10 +10861,8 @@
           <t>3744782412</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2020-11-25 15:30:14</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44160.64599537037</v>
       </c>
       <c r="I148" t="n">
         <v>1</v>
@@ -11212,10 +10934,8 @@
           <t>3744718868</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2020-11-25 15:25:38</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44160.64280092593</v>
       </c>
       <c r="I149" t="n">
         <v>4</v>
@@ -11279,10 +10999,8 @@
           <t>3745185479</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2020-11-25 15:21:31</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44160.63994212963</v>
       </c>
       <c r="I150" t="n">
         <v>1</v>
@@ -11358,10 +11076,8 @@
           <t>3745071041</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2020-11-25 15:20:40</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44160.63935185185</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -11433,10 +11149,8 @@
           <t>3745180391</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2020-11-25 15:20:06</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44160.63895833334</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -11500,10 +11214,8 @@
           <t>3745180278</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2020-11-25 15:19:58</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44160.63886574074</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -11567,10 +11279,8 @@
           <t>3745011988</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2020-11-25 15:19:38</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44160.63863425926</v>
       </c>
       <c r="I154" t="n">
         <v>1</v>
@@ -11643,10 +11353,8 @@
           <t>3745011988</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2020-11-25 15:19:15</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44160.63836805556</v>
       </c>
       <c r="I155" t="n">
         <v>2</v>
@@ -11719,10 +11427,8 @@
           <t>3745173211</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2020-11-25 15:18:34</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44160.63789351852</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
@@ -11798,10 +11504,8 @@
           <t>3745162311</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2020-11-25 15:13:17</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44160.63422453704</v>
       </c>
       <c r="I157" t="n">
         <v>2</v>
@@ -11870,10 +11574,8 @@
           <t>3744718868</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2020-11-25 15:08:43</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44160.63105324074</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
@@ -11950,10 +11652,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2020-11-25 15:07:53</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44160.63047453704</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
@@ -12029,10 +11729,8 @@
           <t>3745029795</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2020-11-25 15:06:59</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44160.62984953704</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -12100,10 +11798,8 @@
           <t>3745071041</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2020-11-25 15:04:30</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44160.628125</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -12179,10 +11875,8 @@
           <t>3745141985</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2020-11-25 15:04:01</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44160.62778935185</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -12255,10 +11949,8 @@
           <t>3744905127</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2020-11-25 15:02:57</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44160.62704861111</v>
       </c>
       <c r="I163" t="n">
         <v>1</v>
@@ -12334,10 +12026,8 @@
           <t>3744905127</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2020-11-25 15:00:48</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44160.62555555555</v>
       </c>
       <c r="I164" t="n">
         <v>1</v>
@@ -12409,10 +12099,8 @@
           <t>3745128990</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2020-11-25 15:00:03</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44160.62503472222</v>
       </c>
       <c r="I165" t="n">
         <v>1</v>
@@ -12476,10 +12164,8 @@
           <t>3744718868</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2020-11-25 14:59:33</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44160.6246875</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
@@ -12547,10 +12233,8 @@
           <t>3745132003</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2020-11-25 14:58:43</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44160.6241087963</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
@@ -12618,10 +12302,8 @@
           <t>3745124418</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2020-11-25 14:57:27</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44160.62322916667</v>
       </c>
       <c r="I168" t="n">
         <v>2</v>
@@ -12685,10 +12367,8 @@
           <t>3745124367</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2020-11-25 14:57:23</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44160.62318287037</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
@@ -12760,10 +12440,8 @@
           <t>3744905127</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2020-11-25 14:57:08</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44160.62300925926</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
@@ -12827,10 +12505,8 @@
           <t>3744782412</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2020-11-25 14:56:42</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44160.62270833334</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
@@ -12898,10 +12574,8 @@
           <t>3745126416</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2020-11-25 14:56:39</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44160.62267361111</v>
       </c>
       <c r="I172" t="n">
         <v>2</v>
@@ -12965,10 +12639,8 @@
           <t>3744782412</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2020-11-25 14:56:31</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44160.62258101852</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
@@ -13036,10 +12708,8 @@
           <t>3744912971</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2020-11-25 14:56:15</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44160.62239583334</v>
       </c>
       <c r="I174" t="n">
         <v>15</v>
@@ -13107,10 +12777,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2020-11-25 14:56:10</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44160.62233796297</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
@@ -13174,10 +12842,8 @@
           <t>3744707786</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2020-11-25 14:55:52</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44160.62212962963</v>
       </c>
       <c r="I176" t="n">
         <v>2</v>
@@ -13249,10 +12915,8 @@
           <t>3744718868</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2020-11-25 14:51:43</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44160.61924768519</v>
       </c>
       <c r="I177" t="n">
         <v>2</v>
@@ -13323,10 +12987,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2020-11-25 14:49:07</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44160.61744212963</v>
       </c>
       <c r="I178" t="n">
         <v>1</v>
@@ -13398,10 +13060,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2020-11-25 14:43:10</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44160.61331018519</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
@@ -13477,10 +13137,8 @@
           <t>3744782412</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2020-11-25 14:43:02</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44160.6132175926</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
@@ -13548,10 +13206,8 @@
           <t>3744782412</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2020-11-25 14:40:38</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44160.61155092593</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
@@ -13619,10 +13275,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2020-11-25 14:38:38</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44160.61016203704</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
@@ -13698,10 +13352,8 @@
           <t>3745090389</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2020-11-25 14:37:41</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44160.60950231482</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
@@ -13777,10 +13429,8 @@
           <t>3744905127</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2020-11-25 14:36:29</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44160.60866898148</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
@@ -13856,10 +13506,8 @@
           <t>3744905127</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2020-11-25 14:35:49</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44160.60820601852</v>
       </c>
       <c r="I185" t="n">
         <v>4</v>
@@ -13935,10 +13583,8 @@
           <t>3744873168</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2020-11-25 14:35:07</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44160.60771990741</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
@@ -14006,10 +13652,8 @@
           <t>3745076466</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2020-11-25 14:32:08</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44160.60564814815</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
@@ -14081,10 +13725,8 @@
           <t>3744718868</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2020-11-25 14:31:13</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44160.60501157407</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
@@ -14152,10 +13794,8 @@
           <t>3745062582</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2020-11-25 14:31:11</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44160.60498842593</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
@@ -14231,10 +13871,8 @@
           <t>3745071041</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2020-11-25 14:29:41</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44160.60394675926</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
@@ -14306,10 +13944,8 @@
           <t>3745066200</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2020-11-25 14:29:02</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44160.60349537037</v>
       </c>
       <c r="I191" t="n">
         <v>6</v>
@@ -14382,10 +14018,8 @@
           <t>3744886302</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2020-11-25 14:28:53</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44160.6033912037</v>
       </c>
       <c r="I192" t="n">
         <v>1</v>
@@ -14461,10 +14095,8 @@
           <t>3745065970</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2020-11-25 14:28:42</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44160.60326388889</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -14528,10 +14160,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2020-11-25 14:27:27</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44160.60239583333</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
@@ -14599,10 +14229,8 @@
           <t>3745065005</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2020-11-25 14:27:20</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44160.60231481482</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
@@ -14666,10 +14294,8 @@
           <t>3745062582</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2020-11-25 14:26:49</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44160.60195601852</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
@@ -14741,10 +14367,8 @@
           <t>3745058510</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2020-11-25 14:26:23</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44160.60165509259</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
@@ -14812,10 +14436,8 @@
           <t>3744755746</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2020-11-25 14:25:40</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44160.60115740741</v>
       </c>
       <c r="I198" t="n">
         <v>2</v>
@@ -14887,10 +14509,8 @@
           <t>3744921546</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2020-11-25 14:24:32</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44160.60037037037</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
@@ -14954,10 +14574,8 @@
           <t>3745049508</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2020-11-25 14:22:30</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44160.59895833334</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
@@ -15022,10 +14640,8 @@
           <t>3745043861</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2020-11-25 14:20:14</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44160.59738425926</v>
       </c>
       <c r="I201" t="n">
         <v>2</v>
@@ -15093,10 +14709,8 @@
           <t>3745042551</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2020-11-25 14:18:30</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44160.59618055556</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
@@ -15164,10 +14778,8 @@
           <t>3745040855</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2020-11-25 14:16:16</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44160.59462962963</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
@@ -15239,10 +14851,8 @@
           <t>3745029795</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2020-11-25 14:14:59</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44160.59373842592</v>
       </c>
       <c r="I204" t="n">
         <v>1</v>
@@ -15310,10 +14920,8 @@
           <t>3745028253</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2020-11-25 14:13:01</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44160.59237268518</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
@@ -15377,10 +14985,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2020-11-25 14:12:10</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44160.59178240741</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
@@ -15444,10 +15050,8 @@
           <t>3744912971</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2020-11-25 14:07:37</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44160.58862268519</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
@@ -15511,10 +15115,8 @@
           <t>3744782412</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2020-11-25 14:07:25</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44160.58848379629</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
@@ -15582,10 +15184,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2020-11-25 14:05:55</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44160.58744212963</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
@@ -15658,10 +15258,8 @@
           <t>3744846309</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2020-11-25 14:05:29</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44160.5871412037</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
@@ -15729,10 +15327,8 @@
           <t>3745011988</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2020-11-25 14:05:09</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44160.58690972222</v>
       </c>
       <c r="I211" t="n">
         <v>2</v>
@@ -15800,10 +15396,8 @@
           <t>3745016643</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2020-11-25 14:04:38</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44160.58655092592</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
@@ -15875,10 +15469,8 @@
           <t>3744912971</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2020-11-25 14:02:44</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44160.58523148148</v>
       </c>
       <c r="I213" t="n">
         <v>2</v>
@@ -15938,10 +15530,8 @@
           <t>3745006849</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2020-11-25 14:02:14</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44160.58488425926</v>
       </c>
       <c r="I214" t="n">
         <v>2</v>
@@ -16013,10 +15603,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2020-11-25 14:00:46</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44160.58386574074</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
@@ -16084,10 +15672,8 @@
           <t>3744997727</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:59:35</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44160.58304398148</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
@@ -16155,10 +15741,8 @@
           <t>3744993318</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:57:24</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44160.58152777778</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
@@ -16230,10 +15814,8 @@
           <t>3744993124</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:57:08</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44160.5813425926</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
@@ -16305,10 +15887,8 @@
           <t>3744726458</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:56:42</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44160.58104166666</v>
       </c>
       <c r="I219" t="n">
         <v>1</v>
@@ -16384,10 +15964,8 @@
           <t>3744888853</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:56:38</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44160.58099537037</v>
       </c>
       <c r="I220" t="n">
         <v>1</v>
@@ -16463,10 +16041,8 @@
           <t>3745000080</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:56:05</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44160.58061342593</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
@@ -16534,10 +16110,8 @@
           <t>3744990806</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:53:56</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44160.57912037037</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
@@ -16613,10 +16187,8 @@
           <t>3744990688</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:53:48</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44160.57902777778</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
@@ -16688,10 +16260,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:53:35</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44160.57887731482</v>
       </c>
       <c r="I224" t="n">
         <v>1</v>
@@ -16767,10 +16337,8 @@
           <t>3744979599</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:52:28</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44160.57810185185</v>
       </c>
       <c r="I225" t="n">
         <v>1</v>
@@ -16842,10 +16410,8 @@
           <t>3744978665</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:51:15</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44160.57725694445</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
@@ -16921,10 +16487,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:49:34</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44160.57608796296</v>
       </c>
       <c r="I227" t="n">
         <v>5</v>
@@ -16988,10 +16552,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:49:23</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44160.57596064815</v>
       </c>
       <c r="I228" t="n">
         <v>1</v>
@@ -17055,10 +16617,8 @@
           <t>3744974698</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:49:07</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44160.57577546296</v>
       </c>
       <c r="I229" t="n">
         <v>1</v>
@@ -17122,10 +16682,8 @@
           <t>3744709085</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:48:57</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44160.57565972222</v>
       </c>
       <c r="I230" t="n">
         <v>1</v>
@@ -17197,10 +16755,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:48:52</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44160.57560185185</v>
       </c>
       <c r="I231" t="n">
         <v>16</v>
@@ -17272,10 +16828,8 @@
           <t>3744953541</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:48:26</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44160.57530092593</v>
       </c>
       <c r="I232" t="n">
         <v>1</v>
@@ -17344,10 +16898,8 @@
           <t>3744718868</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:48:20</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44160.57523148148</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
@@ -17411,10 +16963,8 @@
           <t>3744975857</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:47:42</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44160.57479166667</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
@@ -17490,10 +17040,8 @@
           <t>3744968450</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:47:27</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44160.57461805556</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
@@ -17559,10 +17107,8 @@
           <t>3744912194</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:47:23</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44160.57457175926</v>
       </c>
       <c r="I236" t="n">
         <v>1</v>
@@ -17631,10 +17177,8 @@
           <t>3744972876</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:46:50</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44160.57418981481</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
@@ -17708,10 +17252,8 @@
           <t>3744965609</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:43:48</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44160.57208333333</v>
       </c>
       <c r="I238" t="n">
         <v>2</v>
@@ -17783,10 +17325,8 @@
           <t>3744718868</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:41:57</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44160.57079861111</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
@@ -17858,10 +17398,8 @@
           <t>3744912194</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:41:39</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44160.57059027778</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
@@ -17925,10 +17463,8 @@
           <t>3744953541</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:41:13</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44160.57028935185</v>
       </c>
       <c r="I241" t="n">
         <v>1</v>
@@ -18001,10 +17537,8 @@
           <t>3744912971</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:41:10</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44160.57025462963</v>
       </c>
       <c r="I242" t="n">
         <v>2</v>
@@ -18076,10 +17610,8 @@
           <t>3744960112</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:40:41</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44160.56991898148</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
@@ -18151,10 +17683,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:40:36</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44160.56986111111</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
@@ -18222,10 +17752,8 @@
           <t>3744949792</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:40:19</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44160.56966435185</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
@@ -18289,10 +17817,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:40:16</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44160.56962962963</v>
       </c>
       <c r="I246" t="n">
         <v>1</v>
@@ -18365,10 +17891,8 @@
           <t>3744697298</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:40:07</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44160.56952546296</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
@@ -18436,10 +17960,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:39:40</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44160.56921296296</v>
       </c>
       <c r="I248" t="n">
         <v>1</v>
@@ -18512,10 +18034,8 @@
           <t>3744912194</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:39:12</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44160.56888888889</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
@@ -18584,10 +18104,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:38:26</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44160.56835648148</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
@@ -18651,10 +18169,8 @@
           <t>3744873168</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:38:13</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44160.56820601852</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
@@ -18718,10 +18234,8 @@
           <t>3744912971</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:38:05</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44160.56811342593</v>
       </c>
       <c r="I252" t="n">
         <v>20</v>
@@ -18789,10 +18303,8 @@
           <t>3744946992</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:36:56</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44160.56731481481</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
@@ -18864,10 +18376,8 @@
           <t>3744912194</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:36:50</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44160.56724537037</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
@@ -18931,10 +18441,8 @@
           <t>3744912194</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:36:01</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44160.56667824074</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
@@ -18998,10 +18506,8 @@
           <t>3744943333</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:35:42</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44160.56645833333</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
@@ -19077,10 +18583,8 @@
           <t>3744912194</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:35:33</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44160.56635416667</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
@@ -19149,10 +18653,8 @@
           <t>3744945391</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:35:06</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44160.56604166667</v>
       </c>
       <c r="I258" t="n">
         <v>2</v>
@@ -19212,10 +18714,8 @@
           <t>3744912194</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:34:41</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44160.56575231482</v>
       </c>
       <c r="I259" t="n">
         <v>1</v>
@@ -19279,10 +18779,8 @@
           <t>3744879600</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:34:05</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44160.56533564815</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
@@ -19354,10 +18852,8 @@
           <t>3744934284</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:33:51</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44160.56517361111</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
@@ -19429,10 +18925,8 @@
           <t>3744912194</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:33:08</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44160.56467592593</v>
       </c>
       <c r="I262" t="n">
         <v>2</v>
@@ -19496,10 +18990,8 @@
           <t>3744912194</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:32:53</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44160.56450231482</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
@@ -19568,10 +19060,8 @@
           <t>3744935922</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:32:21</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44160.56413194445</v>
       </c>
       <c r="I264" t="n">
         <v>1</v>
@@ -19643,10 +19133,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:32:05</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44160.56394675926</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
@@ -19718,10 +19206,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:31:45</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44160.56371527778</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
@@ -19781,10 +19267,8 @@
           <t>3744886302</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:30:16</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44160.56268518518</v>
       </c>
       <c r="I267" t="n">
         <v>3</v>
@@ -19844,10 +19328,8 @@
           <t>3744718868</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:30:03</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44160.56253472222</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
@@ -19911,10 +19393,8 @@
           <t>3744912194</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:29:42</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44160.56229166667</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
@@ -19986,10 +19466,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:28:39</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44160.5615625</v>
       </c>
       <c r="I270" t="n">
         <v>6</v>
@@ -20059,10 +19537,8 @@
           <t>3744919566</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:28:39</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44160.5615625</v>
       </c>
       <c r="I271" t="n">
         <v>0</v>
@@ -20139,10 +19615,8 @@
           <t>3744919517</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:28:35</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44160.56151620371</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
@@ -20218,10 +19692,8 @@
           <t>3744926562</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:28:21</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44160.56135416667</v>
       </c>
       <c r="I273" t="n">
         <v>0</v>
@@ -20297,10 +19769,8 @@
           <t>3744922244</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:28:14</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44160.56127314815</v>
       </c>
       <c r="I274" t="n">
         <v>1</v>
@@ -20360,10 +19830,8 @@
           <t>3744921546</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:27:24</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44160.56069444444</v>
       </c>
       <c r="I275" t="n">
         <v>17</v>
@@ -20427,10 +19895,8 @@
           <t>3744902959</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:27:14</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44160.56057870371</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
@@ -20506,10 +19972,8 @@
           <t>3744925170</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:26:47</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44160.56026620371</v>
       </c>
       <c r="I277" t="n">
         <v>0</v>
@@ -20573,10 +20037,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:26:39</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44160.56017361111</v>
       </c>
       <c r="I278" t="n">
         <v>0</v>
@@ -20640,10 +20102,8 @@
           <t>3744902959</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:25:17</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44160.55922453704</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
@@ -20707,10 +20167,8 @@
           <t>3744755746</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:25:12</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44160.55916666667</v>
       </c>
       <c r="I280" t="n">
         <v>0</v>
@@ -20782,10 +20240,8 @@
           <t>3744912194</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:25:05</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44160.55908564815</v>
       </c>
       <c r="I281" t="n">
         <v>3</v>
@@ -20849,10 +20305,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:24:31</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44160.55869212963</v>
       </c>
       <c r="I282" t="n">
         <v>0</v>
@@ -20924,10 +20378,8 @@
           <t>3744819365</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:24:28</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44160.5586574074</v>
       </c>
       <c r="I283" t="n">
         <v>0</v>
@@ -21003,10 +20455,8 @@
           <t>3744912971</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:24:22</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44160.55858796297</v>
       </c>
       <c r="I284" t="n">
         <v>11</v>
@@ -21070,10 +20520,8 @@
           <t>3744873168</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:24:19</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44160.55855324074</v>
       </c>
       <c r="I285" t="n">
         <v>0</v>
@@ -21141,10 +20589,8 @@
           <t>3744718868</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:24:19</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44160.55855324074</v>
       </c>
       <c r="I286" t="n">
         <v>2</v>
@@ -21208,10 +20654,8 @@
           <t>3744912886</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:24:17</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44160.5585300926</v>
       </c>
       <c r="I287" t="n">
         <v>3</v>
@@ -21275,10 +20719,8 @@
           <t>3744697298</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:24:01</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44160.5583449074</v>
       </c>
       <c r="I288" t="n">
         <v>0</v>
@@ -21354,10 +20796,8 @@
           <t>3744776572</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:23:50</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44160.5582175926</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
@@ -21425,10 +20865,8 @@
           <t>3744879600</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:23:44</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44160.55814814815</v>
       </c>
       <c r="I290" t="n">
         <v>0</v>
@@ -21492,10 +20930,8 @@
           <t>3744912194</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:23:35</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44160.55804398148</v>
       </c>
       <c r="I291" t="n">
         <v>0</v>
@@ -21563,10 +20999,8 @@
           <t>3744902959</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:23:32</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44160.55800925926</v>
       </c>
       <c r="I292" t="n">
         <v>0</v>
@@ -21642,10 +21076,8 @@
           <t>3744911969</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:23:20</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44160.55787037037</v>
       </c>
       <c r="I293" t="n">
         <v>1</v>
@@ -21722,10 +21154,8 @@
           <t>3744776572</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:23:05</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44160.55769675926</v>
       </c>
       <c r="I294" t="n">
         <v>1</v>
@@ -21789,10 +21219,8 @@
           <t>3744907242</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:22:45</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44160.55746527778</v>
       </c>
       <c r="I295" t="n">
         <v>0</v>
@@ -21860,10 +21288,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:22:07</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44160.55702546296</v>
       </c>
       <c r="I296" t="n">
         <v>0</v>
@@ -21931,10 +21357,8 @@
           <t>3744820809</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:22:03</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44160.55697916666</v>
       </c>
       <c r="I297" t="n">
         <v>2</v>
@@ -21998,10 +21422,8 @@
           <t>3744902959</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:21:24</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44160.55652777778</v>
       </c>
       <c r="I298" t="n">
         <v>2</v>
@@ -22065,10 +21487,8 @@
           <t>3744886302</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:21:12</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44160.55638888889</v>
       </c>
       <c r="I299" t="n">
         <v>3</v>
@@ -22133,10 +21553,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:20:41</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44160.55603009259</v>
       </c>
       <c r="I300" t="n">
         <v>1</v>
@@ -22200,10 +21618,8 @@
           <t>3744905127</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:20:30</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44160.55590277778</v>
       </c>
       <c r="I301" t="n">
         <v>0</v>
@@ -22272,10 +21688,8 @@
           <t>3744902004</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:20:25</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44160.55584490741</v>
       </c>
       <c r="I302" t="n">
         <v>0</v>
@@ -22347,10 +21761,8 @@
           <t>3744872462</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:20:22</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44160.55581018519</v>
       </c>
       <c r="I303" t="n">
         <v>0</v>
@@ -22426,10 +21838,8 @@
           <t>3744900512</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:20:22</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44160.55581018519</v>
       </c>
       <c r="I304" t="n">
         <v>0</v>
@@ -22493,10 +21903,8 @@
           <t>3744866950</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:19:56</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44160.55550925926</v>
       </c>
       <c r="I305" t="n">
         <v>0</v>
@@ -22560,10 +21968,8 @@
           <t>3744852140</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:19:56</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44160.55550925926</v>
       </c>
       <c r="I306" t="n">
         <v>1</v>
@@ -22632,10 +22038,8 @@
           <t>3744900512</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:18:52</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44160.55476851852</v>
       </c>
       <c r="I307" t="n">
         <v>1</v>
@@ -22707,10 +22111,8 @@
           <t>3744897525</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:18:41</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44160.5546412037</v>
       </c>
       <c r="I308" t="n">
         <v>1</v>
@@ -22774,10 +22176,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:18:21</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44160.55440972222</v>
       </c>
       <c r="I309" t="n">
         <v>0</v>
@@ -22841,10 +22241,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:18:21</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44160.55440972222</v>
       </c>
       <c r="I310" t="n">
         <v>17</v>
@@ -22904,10 +22302,8 @@
           <t>3744713701</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:18:10</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44160.55428240741</v>
       </c>
       <c r="I311" t="n">
         <v>0</v>
@@ -22983,10 +22379,8 @@
           <t>3744697298</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:17:58</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44160.55414351852</v>
       </c>
       <c r="I312" t="n">
         <v>0</v>
@@ -23054,10 +22448,8 @@
           <t>3744889586</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:17:53</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44160.55408564815</v>
       </c>
       <c r="I313" t="n">
         <v>1</v>
@@ -23133,10 +22525,8 @@
           <t>3744888853</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:17:06</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44160.55354166667</v>
       </c>
       <c r="I314" t="n">
         <v>2</v>
@@ -23209,10 +22599,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:16:14</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44160.55293981481</v>
       </c>
       <c r="I315" t="n">
         <v>0</v>
@@ -23280,10 +22668,8 @@
           <t>3744890902</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:16:05</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44160.55283564814</v>
       </c>
       <c r="I316" t="n">
         <v>1</v>
@@ -23355,10 +22741,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:15:34</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44160.55247685185</v>
       </c>
       <c r="I317" t="n">
         <v>0</v>
@@ -23422,10 +22806,8 @@
           <t>3744711106</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:15:00</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44160.55208333334</v>
       </c>
       <c r="I318" t="n">
         <v>0</v>
@@ -23497,10 +22879,8 @@
           <t>3744879600</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:14:46</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44160.5519212963</v>
       </c>
       <c r="I319" t="n">
         <v>1</v>
@@ -23568,10 +22948,8 @@
           <t>3744879553</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:14:44</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44160.55189814815</v>
       </c>
       <c r="I320" t="n">
         <v>1</v>
@@ -23635,10 +23013,8 @@
           <t>3744886302</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:14:27</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44160.55170138889</v>
       </c>
       <c r="I321" t="n">
         <v>8</v>
@@ -23714,10 +23090,8 @@
           <t>3744883318</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:14:23</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44160.55165509259</v>
       </c>
       <c r="I322" t="n">
         <v>0</v>
@@ -23789,10 +23163,8 @@
           <t>3744882988</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:14:04</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44160.55143518518</v>
       </c>
       <c r="I323" t="n">
         <v>0</v>
@@ -23868,10 +23240,8 @@
           <t>3744885839</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:13:59</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44160.55137731481</v>
       </c>
       <c r="I324" t="n">
         <v>9</v>
@@ -23944,10 +23314,8 @@
           <t>3744882793</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:13:51</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44160.55128472222</v>
       </c>
       <c r="I325" t="n">
         <v>14</v>
@@ -24023,10 +23391,8 @@
           <t>3744782412</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:13:30</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44160.55104166667</v>
       </c>
       <c r="I326" t="n">
         <v>0</v>
@@ -24095,10 +23461,8 @@
           <t>3744866950</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:13:23</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44160.55096064815</v>
       </c>
       <c r="I327" t="n">
         <v>0</v>
@@ -24174,10 +23538,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:13:20</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44160.55092592593</v>
       </c>
       <c r="I328" t="n">
         <v>6</v>
@@ -24246,10 +23608,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:13:15</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44160.55086805556</v>
       </c>
       <c r="I329" t="n">
         <v>1</v>
@@ -24325,10 +23685,8 @@
           <t>3744877784</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:12:57</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44160.55065972222</v>
       </c>
       <c r="I330" t="n">
         <v>3</v>
@@ -24400,10 +23758,8 @@
           <t>3744874458</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:12:32</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44160.55037037037</v>
       </c>
       <c r="I331" t="n">
         <v>0</v>
@@ -24471,10 +23827,8 @@
           <t>3744881448</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:12:31</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44160.5503587963</v>
       </c>
       <c r="I332" t="n">
         <v>0</v>
@@ -24538,10 +23892,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:12:30</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44160.55034722222</v>
       </c>
       <c r="I333" t="n">
         <v>0</v>
@@ -24617,10 +23969,8 @@
           <t>3744782412</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:11:52</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44160.54990740741</v>
       </c>
       <c r="I334" t="n">
         <v>1</v>
@@ -24680,10 +24030,8 @@
           <t>3744873168</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:11:13</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44160.54945601852</v>
       </c>
       <c r="I335" t="n">
         <v>14</v>
@@ -24747,10 +24095,8 @@
           <t>3744872462</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:10:29</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44160.54894675926</v>
       </c>
       <c r="I336" t="n">
         <v>0</v>
@@ -24814,10 +24160,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:10:06</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44160.54868055556</v>
       </c>
       <c r="I337" t="n">
         <v>6</v>
@@ -24885,10 +24229,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:09:57</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44160.54857638889</v>
       </c>
       <c r="I338" t="n">
         <v>0</v>
@@ -24948,10 +24290,8 @@
           <t>3744868913</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:09:52</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44160.54851851852</v>
       </c>
       <c r="I339" t="n">
         <v>1</v>
@@ -25015,10 +24355,8 @@
           <t>3744867976</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:08:58</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44160.54789351852</v>
       </c>
       <c r="I340" t="n">
         <v>0</v>
@@ -25086,10 +24424,8 @@
           <t>3744867860</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:08:50</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44160.54780092592</v>
       </c>
       <c r="I341" t="n">
         <v>2</v>
@@ -25157,10 +24493,8 @@
           <t>3744867181</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:08:11</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44160.54734953704</v>
       </c>
       <c r="I342" t="n">
         <v>0</v>
@@ -25232,10 +24566,8 @@
           <t>3744870127</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:08:10</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44160.54733796296</v>
       </c>
       <c r="I343" t="n">
         <v>0</v>
@@ -25299,10 +24631,8 @@
           <t>3744867132</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:08:09</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44160.54732638889</v>
       </c>
       <c r="I344" t="n">
         <v>0</v>
@@ -25378,10 +24708,8 @@
           <t>3744866950</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:07:59</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44160.54721064815</v>
       </c>
       <c r="I345" t="n">
         <v>2</v>
@@ -25445,10 +24773,8 @@
           <t>3744782412</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:07:40</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44160.54699074074</v>
       </c>
       <c r="I346" t="n">
         <v>1</v>
@@ -25508,10 +24834,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:07:21</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44160.54677083333</v>
       </c>
       <c r="I347" t="n">
         <v>36</v>
@@ -25575,10 +24899,8 @@
           <t>3744861802</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:07:04</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44160.54657407408</v>
       </c>
       <c r="I348" t="n">
         <v>0</v>
@@ -25642,10 +24964,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:06:49</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44160.54640046296</v>
       </c>
       <c r="I349" t="n">
         <v>0</v>
@@ -25709,10 +25029,8 @@
           <t>3744718868</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:06:34</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44160.54622685185</v>
       </c>
       <c r="I350" t="n">
         <v>0</v>
@@ -25780,10 +25098,8 @@
           <t>3744858189</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:06:20</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44160.54606481481</v>
       </c>
       <c r="I351" t="n">
         <v>0</v>
@@ -25847,10 +25163,8 @@
           <t>3744857890</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:06:02</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44160.54585648148</v>
       </c>
       <c r="I352" t="n">
         <v>11</v>
@@ -25946,10 +25260,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:05:54</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44160.54576388889</v>
       </c>
       <c r="I353" t="n">
         <v>142</v>
@@ -26013,10 +25325,8 @@
           <t>3744697298</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:05:46</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44160.5456712963</v>
       </c>
       <c r="I354" t="n">
         <v>0</v>
@@ -26084,10 +25394,8 @@
           <t>3744860058</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:05:24</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44160.54541666667</v>
       </c>
       <c r="I355" t="n">
         <v>0</v>
@@ -26155,10 +25463,8 @@
           <t>3744763808</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:05:05</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44160.54519675926</v>
       </c>
       <c r="I356" t="n">
         <v>0</v>
@@ -26226,10 +25532,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:04:36</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44160.54486111111</v>
       </c>
       <c r="I357" t="n">
         <v>0</v>
@@ -26301,10 +25605,8 @@
           <t>3744845062</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:04:26</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44160.54474537037</v>
       </c>
       <c r="I358" t="n">
         <v>0</v>
@@ -26372,10 +25674,8 @@
           <t>3744763808</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:04:26</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44160.54474537037</v>
       </c>
       <c r="I359" t="n">
         <v>0</v>
@@ -26451,10 +25751,8 @@
           <t>3744782412</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:04:02</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44160.54446759259</v>
       </c>
       <c r="I360" t="n">
         <v>0</v>
@@ -26522,10 +25820,8 @@
           <t>3744852708</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:03:49</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44160.54431712963</v>
       </c>
       <c r="I361" t="n">
         <v>0</v>
@@ -26601,10 +25897,8 @@
           <t>3744696848</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:03:48</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44160.54430555556</v>
       </c>
       <c r="I362" t="n">
         <v>1</v>
@@ -26676,10 +25970,8 @@
           <t>3744852140</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:03:15</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44160.54392361111</v>
       </c>
       <c r="I363" t="n">
         <v>0</v>
@@ -26755,10 +26047,8 @@
           <t>3744745642</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:03:10</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44160.54386574074</v>
       </c>
       <c r="I364" t="n">
         <v>0</v>
@@ -26834,10 +26124,8 @@
           <t>3744723107</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:03:08</t>
-        </is>
+      <c r="H365" s="1" t="n">
+        <v>44160.54384259259</v>
       </c>
       <c r="I365" t="n">
         <v>0</v>
@@ -26909,10 +26197,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:02:55</t>
-        </is>
+      <c r="H366" s="1" t="n">
+        <v>44160.54369212963</v>
       </c>
       <c r="I366" t="n">
         <v>1</v>
@@ -26988,10 +26274,8 @@
           <t>3744844479</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:02:44</t>
-        </is>
+      <c r="H367" s="1" t="n">
+        <v>44160.54356481481</v>
       </c>
       <c r="I367" t="n">
         <v>3</v>
@@ -27067,10 +26351,8 @@
           <t>3744844218</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:02:29</t>
-        </is>
+      <c r="H368" s="1" t="n">
+        <v>44160.5433912037</v>
       </c>
       <c r="I368" t="n">
         <v>1</v>
@@ -27146,10 +26428,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:02:00</t>
-        </is>
+      <c r="H369" s="1" t="n">
+        <v>44160.54305555556</v>
       </c>
       <c r="I369" t="n">
         <v>0</v>
@@ -27225,10 +26505,8 @@
           <t>3744843626</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:01:57</t>
-        </is>
+      <c r="H370" s="1" t="n">
+        <v>44160.54302083333</v>
       </c>
       <c r="I370" t="n">
         <v>6</v>
@@ -27304,10 +26582,8 @@
           <t>3744846309</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:01:52</t>
-        </is>
+      <c r="H371" s="1" t="n">
+        <v>44160.54296296297</v>
       </c>
       <c r="I371" t="n">
         <v>0</v>
@@ -27371,10 +26647,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:01:36</t>
-        </is>
+      <c r="H372" s="1" t="n">
+        <v>44160.54277777778</v>
       </c>
       <c r="I372" t="n">
         <v>0</v>
@@ -27450,10 +26724,8 @@
           <t>3744825338</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:01:14</t>
-        </is>
+      <c r="H373" s="1" t="n">
+        <v>44160.54252314815</v>
       </c>
       <c r="I373" t="n">
         <v>1</v>
@@ -27521,10 +26793,8 @@
           <t>3744842894</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:01:14</t>
-        </is>
+      <c r="H374" s="1" t="n">
+        <v>44160.54252314815</v>
       </c>
       <c r="I374" t="n">
         <v>0</v>
@@ -27592,10 +26862,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:00:51</t>
-        </is>
+      <c r="H375" s="1" t="n">
+        <v>44160.54225694444</v>
       </c>
       <c r="I375" t="n">
         <v>1</v>
@@ -27659,10 +26927,8 @@
           <t>3744845062</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:00:39</t>
-        </is>
+      <c r="H376" s="1" t="n">
+        <v>44160.54211805556</v>
       </c>
       <c r="I376" t="n">
         <v>0</v>
@@ -27738,10 +27004,8 @@
           <t>3744696848</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:00:14</t>
-        </is>
+      <c r="H377" s="1" t="n">
+        <v>44160.5418287037</v>
       </c>
       <c r="I377" t="n">
         <v>1</v>
@@ -27818,10 +27082,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:00:06</t>
-        </is>
+      <c r="H378" s="1" t="n">
+        <v>44160.54173611111</v>
       </c>
       <c r="I378" t="n">
         <v>0</v>
@@ -27897,10 +27159,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:59:57</t>
-        </is>
+      <c r="H379" s="1" t="n">
+        <v>44160.54163194444</v>
       </c>
       <c r="I379" t="n">
         <v>0</v>
@@ -27972,10 +27232,8 @@
           <t>3744696848</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:59:45</t>
-        </is>
+      <c r="H380" s="1" t="n">
+        <v>44160.54149305556</v>
       </c>
       <c r="I380" t="n">
         <v>1</v>
@@ -28047,10 +27305,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:59:29</t>
-        </is>
+      <c r="H381" s="1" t="n">
+        <v>44160.54130787037</v>
       </c>
       <c r="I381" t="n">
         <v>0</v>
@@ -28118,10 +27374,8 @@
           <t>3744782412</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:59:26</t>
-        </is>
+      <c r="H382" s="1" t="n">
+        <v>44160.54127314815</v>
       </c>
       <c r="I382" t="n">
         <v>0</v>
@@ -28189,10 +27443,8 @@
           <t>3744837112</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:58:30</t>
-        </is>
+      <c r="H383" s="1" t="n">
+        <v>44160.540625</v>
       </c>
       <c r="I383" t="n">
         <v>0</v>
@@ -28264,10 +27516,8 @@
           <t>3744782412</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:58:18</t>
-        </is>
+      <c r="H384" s="1" t="n">
+        <v>44160.54048611111</v>
       </c>
       <c r="I384" t="n">
         <v>1</v>
@@ -28335,10 +27585,8 @@
           <t>3744782412</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:58:07</t>
-        </is>
+      <c r="H385" s="1" t="n">
+        <v>44160.54035879629</v>
       </c>
       <c r="I385" t="n">
         <v>11</v>
@@ -28406,10 +27654,8 @@
           <t>3744829069</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:57:43</t>
-        </is>
+      <c r="H386" s="1" t="n">
+        <v>44160.54008101852</v>
       </c>
       <c r="I386" t="n">
         <v>2</v>
@@ -28473,10 +27719,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:57:13</t>
-        </is>
+      <c r="H387" s="1" t="n">
+        <v>44160.53973379629</v>
       </c>
       <c r="I387" t="n">
         <v>0</v>
@@ -28548,10 +27792,8 @@
           <t>3744830242</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:56:07</t>
-        </is>
+      <c r="H388" s="1" t="n">
+        <v>44160.53896990741</v>
       </c>
       <c r="I388" t="n">
         <v>0</v>
@@ -28623,10 +27865,8 @@
           <t>3744824346</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:55:59</t>
-        </is>
+      <c r="H389" s="1" t="n">
+        <v>44160.53887731482</v>
       </c>
       <c r="I389" t="n">
         <v>2</v>
@@ -28694,10 +27934,8 @@
           <t>3744707786</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:55:58</t>
-        </is>
+      <c r="H390" s="1" t="n">
+        <v>44160.53886574074</v>
       </c>
       <c r="I390" t="n">
         <v>1</v>
@@ -28773,10 +28011,8 @@
           <t>3744711106</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:55:21</t>
-        </is>
+      <c r="H391" s="1" t="n">
+        <v>44160.5384375</v>
       </c>
       <c r="I391" t="n">
         <v>4</v>
@@ -28852,10 +28088,8 @@
           <t>3744819365</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:55:19</t>
-        </is>
+      <c r="H392" s="1" t="n">
+        <v>44160.53841435185</v>
       </c>
       <c r="I392" t="n">
         <v>0</v>
@@ -28919,10 +28153,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:54:39</t>
-        </is>
+      <c r="H393" s="1" t="n">
+        <v>44160.53795138889</v>
       </c>
       <c r="I393" t="n">
         <v>12</v>
@@ -28990,10 +28222,8 @@
           <t>3744699356</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:54:37</t>
-        </is>
+      <c r="H394" s="1" t="n">
+        <v>44160.53792824074</v>
       </c>
       <c r="I394" t="n">
         <v>0</v>
@@ -29065,10 +28295,8 @@
           <t>3744825462</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:54:30</t>
-        </is>
+      <c r="H395" s="1" t="n">
+        <v>44160.53784722222</v>
       </c>
       <c r="I395" t="n">
         <v>19</v>
@@ -29136,10 +28364,8 @@
           <t>3744825338</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:54:24</t>
-        </is>
+      <c r="H396" s="1" t="n">
+        <v>44160.53777777778</v>
       </c>
       <c r="I396" t="n">
         <v>19</v>
@@ -29207,10 +28433,8 @@
           <t>3744696848</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:53:47</t>
-        </is>
+      <c r="H397" s="1" t="n">
+        <v>44160.53734953704</v>
       </c>
       <c r="I397" t="n">
         <v>1</v>
@@ -29282,10 +28506,8 @@
           <t>3744820809</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:52:49</t>
-        </is>
+      <c r="H398" s="1" t="n">
+        <v>44160.53667824074</v>
       </c>
       <c r="I398" t="n">
         <v>0</v>
@@ -29361,10 +28583,8 @@
           <t>3744711106</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:52:37</t>
-        </is>
+      <c r="H399" s="1" t="n">
+        <v>44160.53653935185</v>
       </c>
       <c r="I399" t="n">
         <v>0</v>
@@ -29436,10 +28656,8 @@
           <t>3744813271</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:52:31</t>
-        </is>
+      <c r="H400" s="1" t="n">
+        <v>44160.53646990741</v>
       </c>
       <c r="I400" t="n">
         <v>0</v>
@@ -29503,10 +28721,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:52:26</t>
-        </is>
+      <c r="H401" s="1" t="n">
+        <v>44160.53641203704</v>
       </c>
       <c r="I401" t="n">
         <v>0</v>
@@ -29574,10 +28790,8 @@
           <t>3744820004</t>
         </is>
       </c>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:52:06</t>
-        </is>
+      <c r="H402" s="1" t="n">
+        <v>44160.53618055556</v>
       </c>
       <c r="I402" t="n">
         <v>21</v>
@@ -29653,10 +28867,8 @@
           <t>3744809666</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:51:48</t>
-        </is>
+      <c r="H403" s="1" t="n">
+        <v>44160.53597222222</v>
       </c>
       <c r="I403" t="n">
         <v>0</v>
@@ -29732,10 +28944,8 @@
           <t>3744812207</t>
         </is>
       </c>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:51:37</t>
-        </is>
+      <c r="H404" s="1" t="n">
+        <v>44160.5358449074</v>
       </c>
       <c r="I404" t="n">
         <v>0</v>
@@ -29803,10 +29013,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:51:34</t>
-        </is>
+      <c r="H405" s="1" t="n">
+        <v>44160.53581018518</v>
       </c>
       <c r="I405" t="n">
         <v>0</v>
@@ -29878,10 +29086,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:51:28</t>
-        </is>
+      <c r="H406" s="1" t="n">
+        <v>44160.53574074074</v>
       </c>
       <c r="I406" t="n">
         <v>6</v>
@@ -29957,10 +29163,8 @@
           <t>3744811591</t>
         </is>
       </c>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:51:04</t>
-        </is>
+      <c r="H407" s="1" t="n">
+        <v>44160.53546296297</v>
       </c>
       <c r="I407" t="n">
         <v>2</v>
@@ -30036,10 +29240,8 @@
           <t>3744712241</t>
         </is>
       </c>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:50:38</t>
-        </is>
+      <c r="H408" s="1" t="n">
+        <v>44160.53516203703</v>
       </c>
       <c r="I408" t="n">
         <v>0</v>
@@ -30107,10 +29309,8 @@
           <t>3744684570</t>
         </is>
       </c>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:50:32</t>
-        </is>
+      <c r="H409" s="1" t="n">
+        <v>44160.5350925926</v>
       </c>
       <c r="I409" t="n">
         <v>0</v>
@@ -30178,10 +29378,8 @@
           <t>3744705774</t>
         </is>
       </c>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:49:34</t>
-        </is>
+      <c r="H410" s="1" t="n">
+        <v>44160.5344212963</v>
       </c>
       <c r="I410" t="n">
         <v>2</v>
@@ -30241,10 +29439,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:48:52</t>
-        </is>
+      <c r="H411" s="1" t="n">
+        <v>44160.53393518519</v>
       </c>
       <c r="I411" t="n">
         <v>0</v>
@@ -30312,10 +29508,8 @@
           <t>3744710532</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:48:33</t>
-        </is>
+      <c r="H412" s="1" t="n">
+        <v>44160.53371527778</v>
       </c>
       <c r="I412" t="n">
         <v>0</v>
@@ -30383,10 +29577,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:48:27</t>
-        </is>
+      <c r="H413" s="1" t="n">
+        <v>44160.53364583333</v>
       </c>
       <c r="I413" t="n">
         <v>0</v>
@@ -30458,10 +29650,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:48:19</t>
-        </is>
+      <c r="H414" s="1" t="n">
+        <v>44160.53355324074</v>
       </c>
       <c r="I414" t="n">
         <v>3</v>
@@ -30529,10 +29719,8 @@
           <t>3744801473</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:48:08</t>
-        </is>
+      <c r="H415" s="1" t="n">
+        <v>44160.53342592593</v>
       </c>
       <c r="I415" t="n">
         <v>1</v>
@@ -30608,10 +29796,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:47:27</t>
-        </is>
+      <c r="H416" s="1" t="n">
+        <v>44160.53295138889</v>
       </c>
       <c r="I416" t="n">
         <v>1</v>
@@ -30687,10 +29873,8 @@
           <t>3744782412</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:47:23</t>
-        </is>
+      <c r="H417" s="1" t="n">
+        <v>44160.53290509259</v>
       </c>
       <c r="I417" t="n">
         <v>2</v>
@@ -30758,10 +29942,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:46:42</t>
-        </is>
+      <c r="H418" s="1" t="n">
+        <v>44160.53243055556</v>
       </c>
       <c r="I418" t="n">
         <v>11</v>
@@ -30834,10 +30016,8 @@
           <t>3744796241</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:46:27</t>
-        </is>
+      <c r="H419" s="1" t="n">
+        <v>44160.53225694445</v>
       </c>
       <c r="I419" t="n">
         <v>0</v>
@@ -30913,10 +30093,8 @@
           <t>3744789388</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:46:19</t>
-        </is>
+      <c r="H420" s="1" t="n">
+        <v>44160.53216435185</v>
       </c>
       <c r="I420" t="n">
         <v>0</v>
@@ -30988,10 +30166,8 @@
           <t>3744788960</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:45:56</t>
-        </is>
+      <c r="H421" s="1" t="n">
+        <v>44160.53189814815</v>
       </c>
       <c r="I421" t="n">
         <v>15</v>
@@ -31059,10 +30235,8 @@
           <t>3744782412</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:45:23</t>
-        </is>
+      <c r="H422" s="1" t="n">
+        <v>44160.5315162037</v>
       </c>
       <c r="I422" t="n">
         <v>13</v>
@@ -31134,10 +30308,8 @@
           <t>3744792307</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:45:15</t>
-        </is>
+      <c r="H423" s="1" t="n">
+        <v>44160.53142361111</v>
       </c>
       <c r="I423" t="n">
         <v>0</v>
@@ -31205,10 +30377,8 @@
           <t>3744792002</t>
         </is>
       </c>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:44:59</t>
-        </is>
+      <c r="H424" s="1" t="n">
+        <v>44160.53123842592</v>
       </c>
       <c r="I424" t="n">
         <v>5</v>
@@ -31272,10 +30442,8 @@
           <t>3744787740</t>
         </is>
       </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:44:53</t>
-        </is>
+      <c r="H425" s="1" t="n">
+        <v>44160.53116898148</v>
       </c>
       <c r="I425" t="n">
         <v>0</v>
@@ -31339,10 +30507,8 @@
           <t>3744784208</t>
         </is>
       </c>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:44:41</t>
-        </is>
+      <c r="H426" s="1" t="n">
+        <v>44160.53103009259</v>
       </c>
       <c r="I426" t="n">
         <v>2</v>
@@ -31414,10 +30580,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:44:16</t>
-        </is>
+      <c r="H427" s="1" t="n">
+        <v>44160.53074074074</v>
       </c>
       <c r="I427" t="n">
         <v>0</v>
@@ -31481,10 +30645,8 @@
           <t>3744783337</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:43:56</t>
-        </is>
+      <c r="H428" s="1" t="n">
+        <v>44160.53050925926</v>
       </c>
       <c r="I428" t="n">
         <v>2</v>
@@ -31556,10 +30718,8 @@
           <t>3744718868</t>
         </is>
       </c>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:43:49</t>
-        </is>
+      <c r="H429" s="1" t="n">
+        <v>44160.53042824074</v>
       </c>
       <c r="I429" t="n">
         <v>1</v>
@@ -31623,10 +30783,8 @@
           <t>3744783147</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:43:47</t>
-        </is>
+      <c r="H430" s="1" t="n">
+        <v>44160.53040509259</v>
       </c>
       <c r="I430" t="n">
         <v>0</v>
@@ -31698,10 +30856,8 @@
           <t>3744727593</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:43:45</t>
-        </is>
+      <c r="H431" s="1" t="n">
+        <v>44160.53038194445</v>
       </c>
       <c r="I431" t="n">
         <v>0</v>
@@ -31765,10 +30921,8 @@
           <t>3744709085</t>
         </is>
       </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:43:43</t>
-        </is>
+      <c r="H432" s="1" t="n">
+        <v>44160.5303587963</v>
       </c>
       <c r="I432" t="n">
         <v>0</v>
@@ -31844,10 +30998,8 @@
           <t>3744782669</t>
         </is>
       </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:43:23</t>
-        </is>
+      <c r="H433" s="1" t="n">
+        <v>44160.53012731481</v>
       </c>
       <c r="I433" t="n">
         <v>2</v>
@@ -31915,10 +31067,8 @@
           <t>3744711106</t>
         </is>
       </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:43:14</t>
-        </is>
+      <c r="H434" s="1" t="n">
+        <v>44160.53002314815</v>
       </c>
       <c r="I434" t="n">
         <v>8</v>
@@ -31982,10 +31132,8 @@
           <t>3744782412</t>
         </is>
       </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:43:11</t>
-        </is>
+      <c r="H435" s="1" t="n">
+        <v>44160.52998842593</v>
       </c>
       <c r="I435" t="n">
         <v>11</v>
@@ -32053,10 +31201,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:42:50</t>
-        </is>
+      <c r="H436" s="1" t="n">
+        <v>44160.52974537037</v>
       </c>
       <c r="I436" t="n">
         <v>0</v>
@@ -32120,10 +31266,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:42:47</t>
-        </is>
+      <c r="H437" s="1" t="n">
+        <v>44160.52971064814</v>
       </c>
       <c r="I437" t="n">
         <v>0</v>
@@ -32191,10 +31335,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:42:45</t>
-        </is>
+      <c r="H438" s="1" t="n">
+        <v>44160.5296875</v>
       </c>
       <c r="I438" t="n">
         <v>0</v>
@@ -32262,10 +31404,8 @@
           <t>3744774791</t>
         </is>
       </c>
-      <c r="H439" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:42:20</t>
-        </is>
+      <c r="H439" s="1" t="n">
+        <v>44160.52939814814</v>
       </c>
       <c r="I439" t="n">
         <v>1</v>
@@ -32337,10 +31477,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H440" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:42:09</t>
-        </is>
+      <c r="H440" s="1" t="n">
+        <v>44160.52927083334</v>
       </c>
       <c r="I440" t="n">
         <v>0</v>
@@ -32401,10 +31539,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H441" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:42:07</t>
-        </is>
+      <c r="H441" s="1" t="n">
+        <v>44160.52924768518</v>
       </c>
       <c r="I441" t="n">
         <v>2</v>
@@ -32480,10 +31616,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H442" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:42:03</t>
-        </is>
+      <c r="H442" s="1" t="n">
+        <v>44160.52920138889</v>
       </c>
       <c r="I442" t="n">
         <v>0</v>
@@ -32547,10 +31681,8 @@
           <t>3744703562</t>
         </is>
       </c>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:41:52</t>
-        </is>
+      <c r="H443" s="1" t="n">
+        <v>44160.52907407407</v>
       </c>
       <c r="I443" t="n">
         <v>24</v>
@@ -32614,10 +31746,8 @@
           <t>3744780724</t>
         </is>
       </c>
-      <c r="H444" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:41:46</t>
-        </is>
+      <c r="H444" s="1" t="n">
+        <v>44160.52900462963</v>
       </c>
       <c r="I444" t="n">
         <v>0</v>
@@ -32693,10 +31823,8 @@
           <t>3744778167</t>
         </is>
       </c>
-      <c r="H445" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:41:45</t>
-        </is>
+      <c r="H445" s="1" t="n">
+        <v>44160.52899305556</v>
       </c>
       <c r="I445" t="n">
         <v>0</v>
@@ -32756,10 +31884,8 @@
           <t>3744709085</t>
         </is>
       </c>
-      <c r="H446" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:41:09</t>
-        </is>
+      <c r="H446" s="1" t="n">
+        <v>44160.52857638889</v>
       </c>
       <c r="I446" t="n">
         <v>3</v>
@@ -32831,10 +31957,8 @@
           <t>3744773066</t>
         </is>
       </c>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:40:54</t>
-        </is>
+      <c r="H447" s="1" t="n">
+        <v>44160.52840277777</v>
       </c>
       <c r="I447" t="n">
         <v>3</v>
@@ -32910,10 +32034,8 @@
           <t>3744711106</t>
         </is>
       </c>
-      <c r="H448" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:40:28</t>
-        </is>
+      <c r="H448" s="1" t="n">
+        <v>44160.52810185185</v>
       </c>
       <c r="I448" t="n">
         <v>11</v>
@@ -32985,10 +32107,8 @@
           <t>3744776572</t>
         </is>
       </c>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:40:23</t>
-        </is>
+      <c r="H449" s="1" t="n">
+        <v>44160.52804398148</v>
       </c>
       <c r="I449" t="n">
         <v>0</v>
@@ -33056,10 +32176,8 @@
           <t>3744776197</t>
         </is>
       </c>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:40:04</t>
-        </is>
+      <c r="H450" s="1" t="n">
+        <v>44160.52782407407</v>
       </c>
       <c r="I450" t="n">
         <v>0</v>
@@ -33135,10 +32253,8 @@
           <t>3744712241</t>
         </is>
       </c>
-      <c r="H451" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:39:50</t>
-        </is>
+      <c r="H451" s="1" t="n">
+        <v>44160.52766203704</v>
       </c>
       <c r="I451" t="n">
         <v>0</v>
@@ -33202,10 +32318,8 @@
           <t>3744768040</t>
         </is>
       </c>
-      <c r="H452" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:39:32</t>
-        </is>
+      <c r="H452" s="1" t="n">
+        <v>44160.5274537037</v>
       </c>
       <c r="I452" t="n">
         <v>0</v>
@@ -33286,10 +32400,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:39:21</t>
-        </is>
+      <c r="H453" s="1" t="n">
+        <v>44160.52732638889</v>
       </c>
       <c r="I453" t="n">
         <v>43</v>
@@ -33365,10 +32477,8 @@
           <t>3744770860</t>
         </is>
       </c>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:39:04</t>
-        </is>
+      <c r="H454" s="1" t="n">
+        <v>44160.52712962963</v>
       </c>
       <c r="I454" t="n">
         <v>0</v>
@@ -33436,10 +32546,8 @@
           <t>3744764740</t>
         </is>
       </c>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:38:52</t>
-        </is>
+      <c r="H455" s="1" t="n">
+        <v>44160.52699074074</v>
       </c>
       <c r="I455" t="n">
         <v>4</v>
@@ -33515,10 +32623,8 @@
           <t>3744767078</t>
         </is>
       </c>
-      <c r="H456" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:38:46</t>
-        </is>
+      <c r="H456" s="1" t="n">
+        <v>44160.5269212963</v>
       </c>
       <c r="I456" t="n">
         <v>2</v>
@@ -33590,10 +32696,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:38:29</t>
-        </is>
+      <c r="H457" s="1" t="n">
+        <v>44160.52672453703</v>
       </c>
       <c r="I457" t="n">
         <v>0</v>
@@ -33669,10 +32773,8 @@
           <t>3744759828</t>
         </is>
       </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:38:14</t>
-        </is>
+      <c r="H458" s="1" t="n">
+        <v>44160.52655092593</v>
       </c>
       <c r="I458" t="n">
         <v>2</v>
@@ -33759,10 +32861,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:38:09</t>
-        </is>
+      <c r="H459" s="1" t="n">
+        <v>44160.52649305556</v>
       </c>
       <c r="I459" t="n">
         <v>25</v>
@@ -33830,10 +32930,8 @@
           <t>3744759685</t>
         </is>
       </c>
-      <c r="H460" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:38:07</t>
-        </is>
+      <c r="H460" s="1" t="n">
+        <v>44160.52646990741</v>
       </c>
       <c r="I460" t="n">
         <v>0</v>
@@ -33909,10 +33007,8 @@
           <t>3744759622</t>
         </is>
       </c>
-      <c r="H461" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:38:04</t>
-        </is>
+      <c r="H461" s="1" t="n">
+        <v>44160.52643518519</v>
       </c>
       <c r="I461" t="n">
         <v>1</v>
@@ -33976,10 +33072,8 @@
           <t>3744763808</t>
         </is>
       </c>
-      <c r="H462" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:38:03</t>
-        </is>
+      <c r="H462" s="1" t="n">
+        <v>44160.52642361111</v>
       </c>
       <c r="I462" t="n">
         <v>0</v>
@@ -34047,10 +33141,8 @@
           <t>3744762271</t>
         </is>
       </c>
-      <c r="H463" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:37:46</t>
-        </is>
+      <c r="H463" s="1" t="n">
+        <v>44160.52622685185</v>
       </c>
       <c r="I463" t="n">
         <v>0</v>
@@ -34122,10 +33214,8 @@
           <t>3744759211</t>
         </is>
       </c>
-      <c r="H464" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:37:43</t>
-        </is>
+      <c r="H464" s="1" t="n">
+        <v>44160.52619212963</v>
       </c>
       <c r="I464" t="n">
         <v>4</v>
@@ -34201,10 +33291,8 @@
           <t>3744762913</t>
         </is>
       </c>
-      <c r="H465" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:37:19</t>
-        </is>
+      <c r="H465" s="1" t="n">
+        <v>44160.52591435185</v>
       </c>
       <c r="I465" t="n">
         <v>8</v>
@@ -34272,10 +33360,8 @@
           <t>3744765282</t>
         </is>
       </c>
-      <c r="H466" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:37:15</t>
-        </is>
+      <c r="H466" s="1" t="n">
+        <v>44160.52586805556</v>
       </c>
       <c r="I466" t="n">
         <v>2</v>
@@ -34351,10 +33437,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H467" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:37:00</t>
-        </is>
+      <c r="H467" s="1" t="n">
+        <v>44160.52569444444</v>
       </c>
       <c r="I467" t="n">
         <v>0</v>
@@ -34426,10 +33510,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H468" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:37:00</t>
-        </is>
+      <c r="H468" s="1" t="n">
+        <v>44160.52569444444</v>
       </c>
       <c r="I468" t="n">
         <v>0</v>
@@ -34497,10 +33579,8 @@
           <t>3744711106</t>
         </is>
       </c>
-      <c r="H469" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:36:51</t>
-        </is>
+      <c r="H469" s="1" t="n">
+        <v>44160.52559027778</v>
       </c>
       <c r="I469" t="n">
         <v>0</v>
@@ -34572,10 +33652,8 @@
           <t>3744762271</t>
         </is>
       </c>
-      <c r="H470" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:36:45</t>
-        </is>
+      <c r="H470" s="1" t="n">
+        <v>44160.52552083333</v>
       </c>
       <c r="I470" t="n">
         <v>0</v>
@@ -34639,10 +33717,8 @@
           <t>3744754598</t>
         </is>
       </c>
-      <c r="H471" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:36:42</t>
-        </is>
+      <c r="H471" s="1" t="n">
+        <v>44160.52548611111</v>
       </c>
       <c r="I471" t="n">
         <v>0</v>
@@ -34714,10 +33790,8 @@
           <t>3744699356</t>
         </is>
       </c>
-      <c r="H472" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:36:24</t>
-        </is>
+      <c r="H472" s="1" t="n">
+        <v>44160.52527777778</v>
       </c>
       <c r="I472" t="n">
         <v>0</v>
@@ -34789,10 +33863,8 @@
           <t>3744703562</t>
         </is>
       </c>
-      <c r="H473" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:36:01</t>
-        </is>
+      <c r="H473" s="1" t="n">
+        <v>44160.52501157407</v>
       </c>
       <c r="I473" t="n">
         <v>9</v>
@@ -34868,10 +33940,8 @@
           <t>3744753804</t>
         </is>
       </c>
-      <c r="H474" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:35:59</t>
-        </is>
+      <c r="H474" s="1" t="n">
+        <v>44160.52498842592</v>
       </c>
       <c r="I474" t="n">
         <v>20</v>
@@ -34948,10 +34018,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H475" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:35:54</t>
-        </is>
+      <c r="H475" s="1" t="n">
+        <v>44160.52493055556</v>
       </c>
       <c r="I475" t="n">
         <v>0</v>
@@ -35023,10 +34091,8 @@
           <t>3744761029</t>
         </is>
       </c>
-      <c r="H476" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:35:42</t>
-        </is>
+      <c r="H476" s="1" t="n">
+        <v>44160.52479166666</v>
       </c>
       <c r="I476" t="n">
         <v>54</v>
@@ -35094,10 +34160,8 @@
           <t>3744753331</t>
         </is>
       </c>
-      <c r="H477" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:35:35</t>
-        </is>
+      <c r="H477" s="1" t="n">
+        <v>44160.52471064815</v>
       </c>
       <c r="I477" t="n">
         <v>1</v>
@@ -35166,10 +34230,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H478" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:35:27</t>
-        </is>
+      <c r="H478" s="1" t="n">
+        <v>44160.52461805556</v>
       </c>
       <c r="I478" t="n">
         <v>0</v>
@@ -35245,10 +34307,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H479" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:35:18</t>
-        </is>
+      <c r="H479" s="1" t="n">
+        <v>44160.52451388889</v>
       </c>
       <c r="I479" t="n">
         <v>2</v>
@@ -35316,10 +34376,8 @@
           <t>3744760551</t>
         </is>
       </c>
-      <c r="H480" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:35:17</t>
-        </is>
+      <c r="H480" s="1" t="n">
+        <v>44160.52450231482</v>
       </c>
       <c r="I480" t="n">
         <v>1</v>
@@ -35395,10 +34453,8 @@
           <t>3744756053</t>
         </is>
       </c>
-      <c r="H481" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:35:00</t>
-        </is>
+      <c r="H481" s="1" t="n">
+        <v>44160.52430555555</v>
       </c>
       <c r="I481" t="n">
         <v>2</v>
@@ -35466,10 +34522,8 @@
           <t>3744755746</t>
         </is>
       </c>
-      <c r="H482" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:34:45</t>
-        </is>
+      <c r="H482" s="1" t="n">
+        <v>44160.52413194445</v>
       </c>
       <c r="I482" t="n">
         <v>130</v>
@@ -35545,10 +34599,8 @@
           <t>3744755739</t>
         </is>
       </c>
-      <c r="H483" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:34:45</t>
-        </is>
+      <c r="H483" s="1" t="n">
+        <v>44160.52413194445</v>
       </c>
       <c r="I483" t="n">
         <v>4</v>
@@ -35612,10 +34664,8 @@
           <t>3744755669</t>
         </is>
       </c>
-      <c r="H484" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:34:42</t>
-        </is>
+      <c r="H484" s="1" t="n">
+        <v>44160.52409722222</v>
       </c>
       <c r="I484" t="n">
         <v>0</v>
@@ -35691,10 +34741,8 @@
           <t>3744739404</t>
         </is>
       </c>
-      <c r="H485" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:34:36</t>
-        </is>
+      <c r="H485" s="1" t="n">
+        <v>44160.52402777778</v>
       </c>
       <c r="I485" t="n">
         <v>7</v>
@@ -35766,10 +34814,8 @@
           <t>3744755412</t>
         </is>
       </c>
-      <c r="H486" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:34:29</t>
-        </is>
+      <c r="H486" s="1" t="n">
+        <v>44160.52394675926</v>
       </c>
       <c r="I486" t="n">
         <v>0</v>
@@ -35837,10 +34883,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H487" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:34:27</t>
-        </is>
+      <c r="H487" s="1" t="n">
+        <v>44160.52392361111</v>
       </c>
       <c r="I487" t="n">
         <v>0</v>
@@ -35916,10 +34960,8 @@
           <t>3744749386</t>
         </is>
       </c>
-      <c r="H488" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:34:19</t>
-        </is>
+      <c r="H488" s="1" t="n">
+        <v>44160.52383101852</v>
       </c>
       <c r="I488" t="n">
         <v>0</v>
@@ -35987,10 +35029,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H489" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:33:36</t>
-        </is>
+      <c r="H489" s="1" t="n">
+        <v>44160.52333333333</v>
       </c>
       <c r="I489" t="n">
         <v>50</v>
@@ -36066,10 +35106,8 @@
           <t>3744748240</t>
         </is>
       </c>
-      <c r="H490" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:33:22</t>
-        </is>
+      <c r="H490" s="1" t="n">
+        <v>44160.5231712963</v>
       </c>
       <c r="I490" t="n">
         <v>10</v>
@@ -36145,10 +35183,8 @@
           <t>3744697298</t>
         </is>
       </c>
-      <c r="H491" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:33:14</t>
-        </is>
+      <c r="H491" s="1" t="n">
+        <v>44160.52307870371</v>
       </c>
       <c r="I491" t="n">
         <v>1</v>
@@ -36216,10 +35252,8 @@
           <t>3744743802</t>
         </is>
       </c>
-      <c r="H492" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:33:05</t>
-        </is>
+      <c r="H492" s="1" t="n">
+        <v>44160.52297453704</v>
       </c>
       <c r="I492" t="n">
         <v>1</v>
@@ -36287,10 +35321,8 @@
           <t>3744745642</t>
         </is>
       </c>
-      <c r="H493" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:32:52</t>
-        </is>
+      <c r="H493" s="1" t="n">
+        <v>44160.52282407408</v>
       </c>
       <c r="I493" t="n">
         <v>5</v>
@@ -36368,10 +35400,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H494" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:32:48</t>
-        </is>
+      <c r="H494" s="1" t="n">
+        <v>44160.52277777778</v>
       </c>
       <c r="I494" t="n">
         <v>0</v>
@@ -36443,10 +35473,8 @@
           <t>3744739851</t>
         </is>
       </c>
-      <c r="H495" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:32:40</t>
-        </is>
+      <c r="H495" s="1" t="n">
+        <v>44160.52268518518</v>
       </c>
       <c r="I495" t="n">
         <v>1</v>
@@ -36514,10 +35542,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H496" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:32:21</t>
-        </is>
+      <c r="H496" s="1" t="n">
+        <v>44160.52246527778</v>
       </c>
       <c r="I496" t="n">
         <v>2</v>
@@ -36593,10 +35619,8 @@
           <t>3744739404</t>
         </is>
       </c>
-      <c r="H497" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:32:18</t>
-        </is>
+      <c r="H497" s="1" t="n">
+        <v>44160.52243055555</v>
       </c>
       <c r="I497" t="n">
         <v>15</v>
@@ -36664,10 +35688,8 @@
           <t>3744705774</t>
         </is>
       </c>
-      <c r="H498" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:32:04</t>
-        </is>
+      <c r="H498" s="1" t="n">
+        <v>44160.52226851852</v>
       </c>
       <c r="I498" t="n">
         <v>23</v>
@@ -36731,10 +35753,8 @@
           <t>3744742441</t>
         </is>
       </c>
-      <c r="H499" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:31:56</t>
-        </is>
+      <c r="H499" s="1" t="n">
+        <v>44160.52217592593</v>
       </c>
       <c r="I499" t="n">
         <v>1</v>
@@ -36802,10 +35822,8 @@
           <t>3744746281</t>
         </is>
       </c>
-      <c r="H500" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:31:44</t>
-        </is>
+      <c r="H500" s="1" t="n">
+        <v>44160.52203703704</v>
       </c>
       <c r="I500" t="n">
         <v>2</v>
@@ -36881,10 +35899,8 @@
           <t>3744727593</t>
         </is>
       </c>
-      <c r="H501" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:31:31</t>
-        </is>
+      <c r="H501" s="1" t="n">
+        <v>44160.52188657408</v>
       </c>
       <c r="I501" t="n">
         <v>0</v>
@@ -36948,10 +35964,8 @@
           <t>3744741847</t>
         </is>
       </c>
-      <c r="H502" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:31:26</t>
-        </is>
+      <c r="H502" s="1" t="n">
+        <v>44160.52182870371</v>
       </c>
       <c r="I502" t="n">
         <v>5</v>
@@ -37027,10 +36041,8 @@
           <t>3744745843</t>
         </is>
       </c>
-      <c r="H503" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:31:22</t>
-        </is>
+      <c r="H503" s="1" t="n">
+        <v>44160.52178240741</v>
       </c>
       <c r="I503" t="n">
         <v>2</v>
@@ -37106,10 +36118,8 @@
           <t>3744745642</t>
         </is>
       </c>
-      <c r="H504" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:31:11</t>
-        </is>
+      <c r="H504" s="1" t="n">
+        <v>44160.52165509259</v>
       </c>
       <c r="I504" t="n">
         <v>5</v>
@@ -37177,10 +36187,8 @@
           <t>3744709085</t>
         </is>
       </c>
-      <c r="H505" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:31:06</t>
-        </is>
+      <c r="H505" s="1" t="n">
+        <v>44160.52159722222</v>
       </c>
       <c r="I505" t="n">
         <v>0</v>
@@ -37248,10 +36256,8 @@
           <t>3744711106</t>
         </is>
       </c>
-      <c r="H506" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:30:58</t>
-        </is>
+      <c r="H506" s="1" t="n">
+        <v>44160.52150462963</v>
       </c>
       <c r="I506" t="n">
         <v>0</v>
@@ -37323,10 +36329,8 @@
           <t>3744696848</t>
         </is>
       </c>
-      <c r="H507" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:30:58</t>
-        </is>
+      <c r="H507" s="1" t="n">
+        <v>44160.52150462963</v>
       </c>
       <c r="I507" t="n">
         <v>3</v>
@@ -37398,10 +36402,8 @@
           <t>3744737738</t>
         </is>
       </c>
-      <c r="H508" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:30:55</t>
-        </is>
+      <c r="H508" s="1" t="n">
+        <v>44160.52146990741</v>
       </c>
       <c r="I508" t="n">
         <v>0</v>
@@ -37469,10 +36471,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H509" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:30:02</t>
-        </is>
+      <c r="H509" s="1" t="n">
+        <v>44160.52085648148</v>
       </c>
       <c r="I509" t="n">
         <v>0</v>
@@ -37548,10 +36548,8 @@
           <t>3744718868</t>
         </is>
       </c>
-      <c r="H510" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:29:54</t>
-        </is>
+      <c r="H510" s="1" t="n">
+        <v>44160.52076388889</v>
       </c>
       <c r="I510" t="n">
         <v>1</v>
@@ -37627,10 +36625,8 @@
           <t>3744696848</t>
         </is>
       </c>
-      <c r="H511" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:29:52</t>
-        </is>
+      <c r="H511" s="1" t="n">
+        <v>44160.52074074074</v>
       </c>
       <c r="I511" t="n">
         <v>4</v>
@@ -37702,10 +36698,8 @@
           <t>3744718868</t>
         </is>
       </c>
-      <c r="H512" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:29:26</t>
-        </is>
+      <c r="H512" s="1" t="n">
+        <v>44160.52043981481</v>
       </c>
       <c r="I512" t="n">
         <v>23</v>
@@ -37781,10 +36775,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H513" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:29:22</t>
-        </is>
+      <c r="H513" s="1" t="n">
+        <v>44160.52039351852</v>
       </c>
       <c r="I513" t="n">
         <v>0</v>
@@ -37848,10 +36840,8 @@
           <t>3744735035</t>
         </is>
       </c>
-      <c r="H514" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:28:41</t>
-        </is>
+      <c r="H514" s="1" t="n">
+        <v>44160.51991898148</v>
       </c>
       <c r="I514" t="n">
         <v>0</v>
@@ -37915,10 +36905,8 @@
           <t>3744728442</t>
         </is>
       </c>
-      <c r="H515" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:28:36</t>
-        </is>
+      <c r="H515" s="1" t="n">
+        <v>44160.51986111111</v>
       </c>
       <c r="I515" t="n">
         <v>3</v>
@@ -37986,10 +36974,8 @@
           <t>3744732508</t>
         </is>
       </c>
-      <c r="H516" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:28:35</t>
-        </is>
+      <c r="H516" s="1" t="n">
+        <v>44160.51984953704</v>
       </c>
       <c r="I516" t="n">
         <v>34</v>
@@ -38065,10 +37051,8 @@
           <t>3744728220</t>
         </is>
       </c>
-      <c r="H517" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:28:26</t>
-        </is>
+      <c r="H517" s="1" t="n">
+        <v>44160.51974537037</v>
       </c>
       <c r="I517" t="n">
         <v>4</v>
@@ -38144,10 +37128,8 @@
           <t>3744728078</t>
         </is>
       </c>
-      <c r="H518" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:28:19</t>
-        </is>
+      <c r="H518" s="1" t="n">
+        <v>44160.51966435185</v>
       </c>
       <c r="I518" t="n">
         <v>50</v>
@@ -38222,10 +37204,8 @@
           <t>3744718868</t>
         </is>
       </c>
-      <c r="H519" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:28:11</t>
-        </is>
+      <c r="H519" s="1" t="n">
+        <v>44160.51957175926</v>
       </c>
       <c r="I519" t="n">
         <v>77</v>
@@ -38301,10 +37281,8 @@
           <t>3744727700</t>
         </is>
       </c>
-      <c r="H520" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:28:00</t>
-        </is>
+      <c r="H520" s="1" t="n">
+        <v>44160.51944444444</v>
       </c>
       <c r="I520" t="n">
         <v>6</v>
@@ -38376,10 +37354,8 @@
           <t>3744727593</t>
         </is>
       </c>
-      <c r="H521" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:27:55</t>
-        </is>
+      <c r="H521" s="1" t="n">
+        <v>44160.51938657407</v>
       </c>
       <c r="I521" t="n">
         <v>0</v>
@@ -38443,10 +37419,8 @@
           <t>3744718868</t>
         </is>
       </c>
-      <c r="H522" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:27:47</t>
-        </is>
+      <c r="H522" s="1" t="n">
+        <v>44160.51929398148</v>
       </c>
       <c r="I522" t="n">
         <v>47</v>
@@ -38514,10 +37488,8 @@
           <t>3744727331</t>
         </is>
       </c>
-      <c r="H523" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:27:41</t>
-        </is>
+      <c r="H523" s="1" t="n">
+        <v>44160.51922453703</v>
       </c>
       <c r="I523" t="n">
         <v>89</v>
@@ -38589,10 +37561,8 @@
           <t>3744723839</t>
         </is>
       </c>
-      <c r="H524" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:27:41</t>
-        </is>
+      <c r="H524" s="1" t="n">
+        <v>44160.51922453703</v>
       </c>
       <c r="I524" t="n">
         <v>0</v>
@@ -38668,10 +37638,8 @@
           <t>3744718868</t>
         </is>
       </c>
-      <c r="H525" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:27:26</t>
-        </is>
+      <c r="H525" s="1" t="n">
+        <v>44160.51905092593</v>
       </c>
       <c r="I525" t="n">
         <v>44</v>
@@ -38731,10 +37699,8 @@
           <t>3744723107</t>
         </is>
       </c>
-      <c r="H526" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:27:03</t>
-        </is>
+      <c r="H526" s="1" t="n">
+        <v>44160.51878472222</v>
       </c>
       <c r="I526" t="n">
         <v>12</v>
@@ -38806,10 +37772,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H527" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:26:59</t>
-        </is>
+      <c r="H527" s="1" t="n">
+        <v>44160.51873842593</v>
       </c>
       <c r="I527" t="n">
         <v>17</v>
@@ -38873,10 +37837,8 @@
           <t>3744726458</t>
         </is>
       </c>
-      <c r="H528" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:26:57</t>
-        </is>
+      <c r="H528" s="1" t="n">
+        <v>44160.51871527778</v>
       </c>
       <c r="I528" t="n">
         <v>2</v>
@@ -38952,10 +37914,8 @@
           <t>3744707786</t>
         </is>
       </c>
-      <c r="H529" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:26:45</t>
-        </is>
+      <c r="H529" s="1" t="n">
+        <v>44160.51857638889</v>
       </c>
       <c r="I529" t="n">
         <v>81</v>
@@ -39019,10 +37979,8 @@
           <t>3744696848</t>
         </is>
       </c>
-      <c r="H530" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:26:41</t>
-        </is>
+      <c r="H530" s="1" t="n">
+        <v>44160.5185300926</v>
       </c>
       <c r="I530" t="n">
         <v>9</v>
@@ -39094,10 +38052,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H531" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:26:37</t>
-        </is>
+      <c r="H531" s="1" t="n">
+        <v>44160.5184837963</v>
       </c>
       <c r="I531" t="n">
         <v>0</v>
@@ -39157,10 +38113,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H532" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:26:29</t>
-        </is>
+      <c r="H532" s="1" t="n">
+        <v>44160.5183912037</v>
       </c>
       <c r="I532" t="n">
         <v>0</v>
@@ -39232,10 +38186,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H533" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:26:01</t>
-        </is>
+      <c r="H533" s="1" t="n">
+        <v>44160.51806712963</v>
       </c>
       <c r="I533" t="n">
         <v>0</v>
@@ -39307,10 +38259,8 @@
           <t>3744721300</t>
         </is>
       </c>
-      <c r="H534" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:25:32</t>
-        </is>
+      <c r="H534" s="1" t="n">
+        <v>44160.51773148148</v>
       </c>
       <c r="I534" t="n">
         <v>3</v>
@@ -39387,10 +38337,8 @@
           <t>3744718868</t>
         </is>
       </c>
-      <c r="H535" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:25:29</t>
-        </is>
+      <c r="H535" s="1" t="n">
+        <v>44160.51769675926</v>
       </c>
       <c r="I535" t="n">
         <v>279</v>
@@ -39466,10 +38414,8 @@
           <t>3744717889</t>
         </is>
       </c>
-      <c r="H536" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:24:35</t>
-        </is>
+      <c r="H536" s="1" t="n">
+        <v>44160.51707175926</v>
       </c>
       <c r="I536" t="n">
         <v>7</v>
@@ -39537,10 +38483,8 @@
           <t>3744705774</t>
         </is>
       </c>
-      <c r="H537" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:24:33</t>
-        </is>
+      <c r="H537" s="1" t="n">
+        <v>44160.51704861111</v>
       </c>
       <c r="I537" t="n">
         <v>18</v>
@@ -39608,10 +38552,8 @@
           <t>3744713701</t>
         </is>
       </c>
-      <c r="H538" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:24:32</t>
-        </is>
+      <c r="H538" s="1" t="n">
+        <v>44160.51703703704</v>
       </c>
       <c r="I538" t="n">
         <v>2</v>
@@ -39679,10 +38621,8 @@
           <t>3744720146</t>
         </is>
       </c>
-      <c r="H539" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:24:28</t>
-        </is>
+      <c r="H539" s="1" t="n">
+        <v>44160.51699074074</v>
       </c>
       <c r="I539" t="n">
         <v>2</v>
@@ -39758,10 +38698,8 @@
           <t>3744717663</t>
         </is>
       </c>
-      <c r="H540" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:24:23</t>
-        </is>
+      <c r="H540" s="1" t="n">
+        <v>44160.51693287037</v>
       </c>
       <c r="I540" t="n">
         <v>3</v>
@@ -39834,10 +38772,8 @@
           <t>3744717518</t>
         </is>
       </c>
-      <c r="H541" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:24:15</t>
-        </is>
+      <c r="H541" s="1" t="n">
+        <v>44160.51684027778</v>
       </c>
       <c r="I541" t="n">
         <v>16</v>
@@ -39909,10 +38845,8 @@
           <t>3744709799</t>
         </is>
       </c>
-      <c r="H542" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:24:09</t>
-        </is>
+      <c r="H542" s="1" t="n">
+        <v>44160.51677083333</v>
       </c>
       <c r="I542" t="n">
         <v>5</v>
@@ -39976,10 +38910,8 @@
           <t>3744709696</t>
         </is>
       </c>
-      <c r="H543" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:24:04</t>
-        </is>
+      <c r="H543" s="1" t="n">
+        <v>44160.51671296296</v>
       </c>
       <c r="I543" t="n">
         <v>48</v>
@@ -40047,10 +38979,8 @@
           <t>3744709330</t>
         </is>
       </c>
-      <c r="H544" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:23:44</t>
-        </is>
+      <c r="H544" s="1" t="n">
+        <v>44160.51648148148</v>
       </c>
       <c r="I544" t="n">
         <v>2</v>
@@ -40133,10 +39063,8 @@
           <t>3744709085</t>
         </is>
       </c>
-      <c r="H545" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:23:31</t>
-        </is>
+      <c r="H545" s="1" t="n">
+        <v>44160.51633101852</v>
       </c>
       <c r="I545" t="n">
         <v>4</v>
@@ -40212,10 +39140,8 @@
           <t>3744712524</t>
         </is>
       </c>
-      <c r="H546" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:23:29</t>
-        </is>
+      <c r="H546" s="1" t="n">
+        <v>44160.51630787037</v>
       </c>
       <c r="I546" t="n">
         <v>51</v>
@@ -40291,10 +39217,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H547" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:23:28</t>
-        </is>
+      <c r="H547" s="1" t="n">
+        <v>44160.51629629629</v>
       </c>
       <c r="I547" t="n">
         <v>0</v>
@@ -40370,10 +39294,8 @@
           <t>3744712241</t>
         </is>
       </c>
-      <c r="H548" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:23:15</t>
-        </is>
+      <c r="H548" s="1" t="n">
+        <v>44160.51614583333</v>
       </c>
       <c r="I548" t="n">
         <v>1</v>
@@ -40445,10 +39367,8 @@
           <t>3744708544</t>
         </is>
       </c>
-      <c r="H549" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:23:05</t>
-        </is>
+      <c r="H549" s="1" t="n">
+        <v>44160.51603009259</v>
       </c>
       <c r="I549" t="n">
         <v>1</v>
@@ -40520,10 +39440,8 @@
           <t>3744716036</t>
         </is>
       </c>
-      <c r="H550" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:22:57</t>
-        </is>
+      <c r="H550" s="1" t="n">
+        <v>44160.5159375</v>
       </c>
       <c r="I550" t="n">
         <v>9</v>
@@ -40587,10 +39505,8 @@
           <t>3744716006</t>
         </is>
       </c>
-      <c r="H551" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:22:55</t>
-        </is>
+      <c r="H551" s="1" t="n">
+        <v>44160.51591435185</v>
       </c>
       <c r="I551" t="n">
         <v>3</v>
@@ -40658,10 +39574,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H552" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:22:31</t>
-        </is>
+      <c r="H552" s="1" t="n">
+        <v>44160.51563657408</v>
       </c>
       <c r="I552" t="n">
         <v>60</v>
@@ -40737,10 +39651,8 @@
           <t>3744707924</t>
         </is>
       </c>
-      <c r="H553" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:22:31</t>
-        </is>
+      <c r="H553" s="1" t="n">
+        <v>44160.51563657408</v>
       </c>
       <c r="I553" t="n">
         <v>0</v>
@@ -40804,10 +39716,8 @@
           <t>3744703562</t>
         </is>
       </c>
-      <c r="H554" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:22:25</t>
-        </is>
+      <c r="H554" s="1" t="n">
+        <v>44160.51556712963</v>
       </c>
       <c r="I554" t="n">
         <v>81</v>
@@ -40879,10 +39789,8 @@
           <t>3744707786</t>
         </is>
       </c>
-      <c r="H555" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:22:24</t>
-        </is>
+      <c r="H555" s="1" t="n">
+        <v>44160.51555555555</v>
       </c>
       <c r="I555" t="n">
         <v>199</v>
@@ -40959,10 +39867,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H556" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:22:21</t>
-        </is>
+      <c r="H556" s="1" t="n">
+        <v>44160.51552083333</v>
       </c>
       <c r="I556" t="n">
         <v>0</v>
@@ -41030,10 +39936,8 @@
           <t>3744711233</t>
         </is>
       </c>
-      <c r="H557" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:22:21</t>
-        </is>
+      <c r="H557" s="1" t="n">
+        <v>44160.51552083333</v>
       </c>
       <c r="I557" t="n">
         <v>9</v>
@@ -41105,10 +40009,8 @@
           <t>3744711106</t>
         </is>
       </c>
-      <c r="H558" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:22:14</t>
-        </is>
+      <c r="H558" s="1" t="n">
+        <v>44160.51543981482</v>
       </c>
       <c r="I558" t="n">
         <v>0</v>
@@ -41180,10 +40082,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H559" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:22:06</t>
-        </is>
+      <c r="H559" s="1" t="n">
+        <v>44160.51534722222</v>
       </c>
       <c r="I559" t="n">
         <v>0</v>
@@ -41247,10 +40147,8 @@
           <t>3744715047</t>
         </is>
       </c>
-      <c r="H560" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:22:04</t>
-        </is>
+      <c r="H560" s="1" t="n">
+        <v>44160.51532407408</v>
       </c>
       <c r="I560" t="n">
         <v>1</v>
@@ -41319,10 +40217,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H561" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:21:58</t>
-        </is>
+      <c r="H561" s="1" t="n">
+        <v>44160.51525462963</v>
       </c>
       <c r="I561" t="n">
         <v>0</v>
@@ -41390,10 +40286,8 @@
           <t>3744704904</t>
         </is>
       </c>
-      <c r="H562" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:21:57</t>
-        </is>
+      <c r="H562" s="1" t="n">
+        <v>44160.51524305555</v>
       </c>
       <c r="I562" t="n">
         <v>9</v>
@@ -41476,10 +40370,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H563" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:21:55</t>
-        </is>
+      <c r="H563" s="1" t="n">
+        <v>44160.51521990741</v>
       </c>
       <c r="I563" t="n">
         <v>162</v>
@@ -41555,10 +40447,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H564" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:21:52</t>
-        </is>
+      <c r="H564" s="1" t="n">
+        <v>44160.51518518518</v>
       </c>
       <c r="I564" t="n">
         <v>0</v>
@@ -41626,10 +40516,8 @@
           <t>3744704721</t>
         </is>
       </c>
-      <c r="H565" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:21:46</t>
-        </is>
+      <c r="H565" s="1" t="n">
+        <v>44160.51511574074</v>
       </c>
       <c r="I565" t="n">
         <v>3</v>
@@ -41701,10 +40589,8 @@
           <t>3744710532</t>
         </is>
       </c>
-      <c r="H566" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:21:45</t>
-        </is>
+      <c r="H566" s="1" t="n">
+        <v>44160.51510416667</v>
       </c>
       <c r="I566" t="n">
         <v>4</v>
@@ -41768,10 +40654,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H567" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:21:41</t>
-        </is>
+      <c r="H567" s="1" t="n">
+        <v>44160.51505787037</v>
       </c>
       <c r="I567" t="n">
         <v>1</v>
@@ -41843,10 +40727,8 @@
           <t>3744706923</t>
         </is>
       </c>
-      <c r="H568" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:21:40</t>
-        </is>
+      <c r="H568" s="1" t="n">
+        <v>44160.5150462963</v>
       </c>
       <c r="I568" t="n">
         <v>9</v>
@@ -41922,10 +40804,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H569" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:21:32</t>
-        </is>
+      <c r="H569" s="1" t="n">
+        <v>44160.51495370371</v>
       </c>
       <c r="I569" t="n">
         <v>87</v>
@@ -42002,10 +40882,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H570" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:21:26</t>
-        </is>
+      <c r="H570" s="1" t="n">
+        <v>44160.51488425926</v>
       </c>
       <c r="I570" t="n">
         <v>26</v>
@@ -42077,10 +40955,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H571" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:21:23</t>
-        </is>
+      <c r="H571" s="1" t="n">
+        <v>44160.51484953704</v>
       </c>
       <c r="I571" t="n">
         <v>1</v>
@@ -42147,10 +41023,8 @@
           <t>3744706520</t>
         </is>
       </c>
-      <c r="H572" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:21:20</t>
-        </is>
+      <c r="H572" s="1" t="n">
+        <v>44160.51481481481</v>
       </c>
       <c r="I572" t="n">
         <v>0</v>
@@ -42219,10 +41093,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H573" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:21:11</t>
-        </is>
+      <c r="H573" s="1" t="n">
+        <v>44160.51471064815</v>
       </c>
       <c r="I573" t="n">
         <v>22</v>
@@ -42294,10 +41166,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H574" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:21:10</t>
-        </is>
+      <c r="H574" s="1" t="n">
+        <v>44160.51469907408</v>
       </c>
       <c r="I574" t="n">
         <v>0</v>
@@ -42373,10 +41243,8 @@
           <t>3744703999</t>
         </is>
       </c>
-      <c r="H575" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:21:10</t>
-        </is>
+      <c r="H575" s="1" t="n">
+        <v>44160.51469907408</v>
       </c>
       <c r="I575" t="n">
         <v>11</v>
@@ -42444,10 +41312,8 @@
           <t>3744706061</t>
         </is>
       </c>
-      <c r="H576" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:20:57</t>
-        </is>
+      <c r="H576" s="1" t="n">
+        <v>44160.51454861111</v>
       </c>
       <c r="I576" t="n">
         <v>6</v>
@@ -42523,10 +41389,8 @@
           <t>3744703562</t>
         </is>
       </c>
-      <c r="H577" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:20:45</t>
-        </is>
+      <c r="H577" s="1" t="n">
+        <v>44160.51440972222</v>
       </c>
       <c r="I577" t="n">
         <v>27</v>
@@ -42598,10 +41462,8 @@
           <t>3744705860</t>
         </is>
       </c>
-      <c r="H578" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:20:45</t>
-        </is>
+      <c r="H578" s="1" t="n">
+        <v>44160.51440972222</v>
       </c>
       <c r="I578" t="n">
         <v>15</v>
@@ -42665,10 +41527,8 @@
           <t>3744705774</t>
         </is>
       </c>
-      <c r="H579" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:20:40</t>
-        </is>
+      <c r="H579" s="1" t="n">
+        <v>44160.51435185185</v>
       </c>
       <c r="I579" t="n">
         <v>32</v>
@@ -42745,10 +41605,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H580" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:20:34</t>
-        </is>
+      <c r="H580" s="1" t="n">
+        <v>44160.51428240741</v>
       </c>
       <c r="I580" t="n">
         <v>1</v>
@@ -42816,10 +41674,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H581" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:20:08</t>
-        </is>
+      <c r="H581" s="1" t="n">
+        <v>44160.51398148148</v>
       </c>
       <c r="I581" t="n">
         <v>5</v>
@@ -42886,10 +41742,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H582" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:20:04</t>
-        </is>
+      <c r="H582" s="1" t="n">
+        <v>44160.51393518518</v>
       </c>
       <c r="I582" t="n">
         <v>0</v>
@@ -42961,10 +41815,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H583" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:20:02</t>
-        </is>
+      <c r="H583" s="1" t="n">
+        <v>44160.51391203704</v>
       </c>
       <c r="I583" t="n">
         <v>0</v>
@@ -43040,10 +41892,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H584" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:19:57</t>
-        </is>
+      <c r="H584" s="1" t="n">
+        <v>44160.51385416667</v>
       </c>
       <c r="I584" t="n">
         <v>0</v>
@@ -43115,10 +41965,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H585" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:19:53</t>
-        </is>
+      <c r="H585" s="1" t="n">
+        <v>44160.51380787037</v>
       </c>
       <c r="I585" t="n">
         <v>0</v>
@@ -43194,10 +42042,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H586" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:19:52</t>
-        </is>
+      <c r="H586" s="1" t="n">
+        <v>44160.5137962963</v>
       </c>
       <c r="I586" t="n">
         <v>0</v>
@@ -43261,10 +42107,8 @@
           <t>3744698155</t>
         </is>
       </c>
-      <c r="H587" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:19:40</t>
-        </is>
+      <c r="H587" s="1" t="n">
+        <v>44160.51365740741</v>
       </c>
       <c r="I587" t="n">
         <v>0</v>
@@ -43340,10 +42184,8 @@
           <t>3744697985</t>
         </is>
       </c>
-      <c r="H588" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:19:31</t>
-        </is>
+      <c r="H588" s="1" t="n">
+        <v>44160.51355324074</v>
       </c>
       <c r="I588" t="n">
         <v>1</v>
@@ -43415,10 +42257,8 @@
           <t>3744694282</t>
         </is>
       </c>
-      <c r="H589" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:19:25</t>
-        </is>
+      <c r="H589" s="1" t="n">
+        <v>44160.5134837963</v>
       </c>
       <c r="I589" t="n">
         <v>0</v>
@@ -43490,10 +42330,8 @@
           <t>3744701691</t>
         </is>
       </c>
-      <c r="H590" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:19:08</t>
-        </is>
+      <c r="H590" s="1" t="n">
+        <v>44160.51328703704</v>
       </c>
       <c r="I590" t="n">
         <v>1</v>
@@ -43562,10 +42400,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H591" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:19:07</t>
-        </is>
+      <c r="H591" s="1" t="n">
+        <v>44160.51327546296</v>
       </c>
       <c r="I591" t="n">
         <v>589</v>
@@ -43633,10 +42469,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H592" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:19:06</t>
-        </is>
+      <c r="H592" s="1" t="n">
+        <v>44160.51326388889</v>
       </c>
       <c r="I592" t="n">
         <v>1</v>
@@ -43696,10 +42530,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H593" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:18:54</t>
-        </is>
+      <c r="H593" s="1" t="n">
+        <v>44160.513125</v>
       </c>
       <c r="I593" t="n">
         <v>0</v>
@@ -43775,10 +42607,8 @@
           <t>3744697298</t>
         </is>
       </c>
-      <c r="H594" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:18:53</t>
-        </is>
+      <c r="H594" s="1" t="n">
+        <v>44160.51311342593</v>
       </c>
       <c r="I594" t="n">
         <v>252</v>
@@ -43842,10 +42672,8 @@
           <t>3744701104</t>
         </is>
       </c>
-      <c r="H595" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:18:35</t>
-        </is>
+      <c r="H595" s="1" t="n">
+        <v>44160.51290509259</v>
       </c>
       <c r="I595" t="n">
         <v>8</v>
@@ -43917,10 +42745,8 @@
           <t>3744696848</t>
         </is>
       </c>
-      <c r="H596" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:18:29</t>
-        </is>
+      <c r="H596" s="1" t="n">
+        <v>44160.51283564815</v>
       </c>
       <c r="I596" t="n">
         <v>9</v>
@@ -43992,10 +42818,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H597" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:18:23</t>
-        </is>
+      <c r="H597" s="1" t="n">
+        <v>44160.5127662037</v>
       </c>
       <c r="I597" t="n">
         <v>1</v>
@@ -44063,10 +42887,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H598" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:18:20</t>
-        </is>
+      <c r="H598" s="1" t="n">
+        <v>44160.51273148148</v>
       </c>
       <c r="I598" t="n">
         <v>1</v>
@@ -44126,10 +42948,8 @@
           <t>3744692965</t>
         </is>
       </c>
-      <c r="H599" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:18:16</t>
-        </is>
+      <c r="H599" s="1" t="n">
+        <v>44160.51268518518</v>
       </c>
       <c r="I599" t="n">
         <v>1</v>
@@ -44201,10 +43021,8 @@
           <t>3744692756</t>
         </is>
       </c>
-      <c r="H600" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:18:05</t>
-        </is>
+      <c r="H600" s="1" t="n">
+        <v>44160.51255787037</v>
       </c>
       <c r="I600" t="n">
         <v>20</v>
@@ -44280,10 +43098,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H601" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:18:00</t>
-        </is>
+      <c r="H601" s="1" t="n">
+        <v>44160.5125</v>
       </c>
       <c r="I601" t="n">
         <v>0</v>
@@ -44352,10 +43168,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H602" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:17:53</t>
-        </is>
+      <c r="H602" s="1" t="n">
+        <v>44160.51241898148</v>
       </c>
       <c r="I602" t="n">
         <v>0</v>
@@ -44431,10 +43245,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H603" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:17:51</t>
-        </is>
+      <c r="H603" s="1" t="n">
+        <v>44160.51239583334</v>
       </c>
       <c r="I603" t="n">
         <v>0</v>
@@ -44510,10 +43322,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H604" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:17:50</t>
-        </is>
+      <c r="H604" s="1" t="n">
+        <v>44160.51238425926</v>
       </c>
       <c r="I604" t="n">
         <v>1</v>
@@ -44577,10 +43387,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H605" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:17:42</t>
-        </is>
+      <c r="H605" s="1" t="n">
+        <v>44160.51229166667</v>
       </c>
       <c r="I605" t="n">
         <v>147</v>
@@ -44648,10 +43456,8 @@
           <t>3744695929</t>
         </is>
       </c>
-      <c r="H606" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:17:41</t>
-        </is>
+      <c r="H606" s="1" t="n">
+        <v>44160.51228009259</v>
       </c>
       <c r="I606" t="n">
         <v>0</v>
@@ -44727,10 +43533,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H607" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:17:37</t>
-        </is>
+      <c r="H607" s="1" t="n">
+        <v>44160.5122337963</v>
       </c>
       <c r="I607" t="n">
         <v>0</v>
@@ -44797,10 +43601,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H608" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:17:36</t>
-        </is>
+      <c r="H608" s="1" t="n">
+        <v>44160.51222222222</v>
       </c>
       <c r="I608" t="n">
         <v>0</v>
@@ -44868,10 +43670,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H609" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:17:35</t>
-        </is>
+      <c r="H609" s="1" t="n">
+        <v>44160.51221064815</v>
       </c>
       <c r="I609" t="n">
         <v>0</v>
@@ -44947,10 +43747,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H610" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:17:35</t>
-        </is>
+      <c r="H610" s="1" t="n">
+        <v>44160.51221064815</v>
       </c>
       <c r="I610" t="n">
         <v>0</v>
@@ -45014,10 +43812,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H611" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:17:29</t>
-        </is>
+      <c r="H611" s="1" t="n">
+        <v>44160.5121412037</v>
       </c>
       <c r="I611" t="n">
         <v>0</v>
@@ -45093,10 +43889,8 @@
           <t>3744689885</t>
         </is>
       </c>
-      <c r="H612" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:17:29</t>
-        </is>
+      <c r="H612" s="1" t="n">
+        <v>44160.5121412037</v>
       </c>
       <c r="I612" t="n">
         <v>5</v>
@@ -45164,10 +43958,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H613" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:17:27</t>
-        </is>
+      <c r="H613" s="1" t="n">
+        <v>44160.51211805556</v>
       </c>
       <c r="I613" t="n">
         <v>1</v>
@@ -45235,10 +44027,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H614" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:17:26</t>
-        </is>
+      <c r="H614" s="1" t="n">
+        <v>44160.51210648148</v>
       </c>
       <c r="I614" t="n">
         <v>18</v>
@@ -45310,10 +44100,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H615" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:17:19</t>
-        </is>
+      <c r="H615" s="1" t="n">
+        <v>44160.51202546297</v>
       </c>
       <c r="I615" t="n">
         <v>0</v>
@@ -45381,10 +44169,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H616" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:17:16</t>
-        </is>
+      <c r="H616" s="1" t="n">
+        <v>44160.51199074074</v>
       </c>
       <c r="I616" t="n">
         <v>0</v>
@@ -45451,10 +44237,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H617" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:17:12</t>
-        </is>
+      <c r="H617" s="1" t="n">
+        <v>44160.51194444444</v>
       </c>
       <c r="I617" t="n">
         <v>0</v>
@@ -45518,10 +44302,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H618" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:16:51</t>
-        </is>
+      <c r="H618" s="1" t="n">
+        <v>44160.51170138889</v>
       </c>
       <c r="I618" t="n">
         <v>1</v>
@@ -45593,10 +44375,8 @@
           <t>3744689152</t>
         </is>
       </c>
-      <c r="H619" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:16:50</t>
-        </is>
+      <c r="H619" s="1" t="n">
+        <v>44160.51168981481</v>
       </c>
       <c r="I619" t="n">
         <v>8</v>
@@ -45664,10 +44444,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H620" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:16:47</t>
-        </is>
+      <c r="H620" s="1" t="n">
+        <v>44160.5116550926</v>
       </c>
       <c r="I620" t="n">
         <v>0</v>
@@ -45731,10 +44509,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H621" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:16:38</t>
-        </is>
+      <c r="H621" s="1" t="n">
+        <v>44160.51155092593</v>
       </c>
       <c r="I621" t="n">
         <v>0</v>
@@ -45810,10 +44586,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H622" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:16:30</t>
-        </is>
+      <c r="H622" s="1" t="n">
+        <v>44160.51145833333</v>
       </c>
       <c r="I622" t="n">
         <v>3</v>
@@ -45889,10 +44663,8 @@
           <t>3744684570</t>
         </is>
       </c>
-      <c r="H623" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:16:28</t>
-        </is>
+      <c r="H623" s="1" t="n">
+        <v>44160.51143518519</v>
       </c>
       <c r="I623" t="n">
         <v>11</v>
@@ -45960,10 +44732,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H624" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:16:20</t>
-        </is>
+      <c r="H624" s="1" t="n">
+        <v>44160.5113425926</v>
       </c>
       <c r="I624" t="n">
         <v>9</v>
@@ -46035,10 +44805,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H625" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:16:19</t>
-        </is>
+      <c r="H625" s="1" t="n">
+        <v>44160.51133101852</v>
       </c>
       <c r="I625" t="n">
         <v>9</v>
@@ -46106,10 +44874,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H626" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:16:16</t>
-        </is>
+      <c r="H626" s="1" t="n">
+        <v>44160.5112962963</v>
       </c>
       <c r="I626" t="n">
         <v>0</v>
@@ -46185,10 +44951,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H627" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:16:15</t>
-        </is>
+      <c r="H627" s="1" t="n">
+        <v>44160.51128472222</v>
       </c>
       <c r="I627" t="n">
         <v>1</v>
@@ -46252,10 +45016,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H628" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:16:09</t>
-        </is>
+      <c r="H628" s="1" t="n">
+        <v>44160.51121527778</v>
       </c>
       <c r="I628" t="n">
         <v>429</v>
@@ -46331,10 +45093,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H629" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:16:09</t>
-        </is>
+      <c r="H629" s="1" t="n">
+        <v>44160.51121527778</v>
       </c>
       <c r="I629" t="n">
         <v>9</v>
@@ -46411,10 +45171,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H630" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:16:07</t>
-        </is>
+      <c r="H630" s="1" t="n">
+        <v>44160.51119212963</v>
       </c>
       <c r="I630" t="n">
         <v>109</v>
@@ -46490,10 +45248,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H631" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:16:03</t>
-        </is>
+      <c r="H631" s="1" t="n">
+        <v>44160.51114583333</v>
       </c>
       <c r="I631" t="n">
         <v>1</v>
@@ -46557,10 +45313,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H632" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:15:58</t>
-        </is>
+      <c r="H632" s="1" t="n">
+        <v>44160.51108796296</v>
       </c>
       <c r="I632" t="n">
         <v>292</v>
@@ -46632,10 +45386,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H633" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:15:56</t>
-        </is>
+      <c r="H633" s="1" t="n">
+        <v>44160.51106481482</v>
       </c>
       <c r="I633" t="n">
         <v>0</v>
@@ -46704,10 +45456,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H634" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:15:56</t>
-        </is>
+      <c r="H634" s="1" t="n">
+        <v>44160.51106481482</v>
       </c>
       <c r="I634" t="n">
         <v>3</v>
@@ -46783,10 +45533,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H635" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:15:55</t>
-        </is>
+      <c r="H635" s="1" t="n">
+        <v>44160.51105324074</v>
       </c>
       <c r="I635" t="n">
         <v>237</v>
@@ -46862,10 +45610,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H636" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:15:55</t>
-        </is>
+      <c r="H636" s="1" t="n">
+        <v>44160.51105324074</v>
       </c>
       <c r="I636" t="n">
         <v>0</v>
@@ -46941,10 +45687,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H637" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:15:52</t>
-        </is>
+      <c r="H637" s="1" t="n">
+        <v>44160.51101851852</v>
       </c>
       <c r="I637" t="n">
         <v>1047</v>
@@ -47020,10 +45764,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H638" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:15:52</t>
-        </is>
+      <c r="H638" s="1" t="n">
+        <v>44160.51101851852</v>
       </c>
       <c r="I638" t="n">
         <v>0</v>
@@ -47095,10 +45837,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H639" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:15:51</t>
-        </is>
+      <c r="H639" s="1" t="n">
+        <v>44160.51100694444</v>
       </c>
       <c r="I639" t="n">
         <v>0</v>
@@ -47170,10 +45910,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H640" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:15:46</t>
-        </is>
+      <c r="H640" s="1" t="n">
+        <v>44160.51094907407</v>
       </c>
       <c r="I640" t="n">
         <v>1</v>
@@ -47241,10 +45979,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H641" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:15:43</t>
-        </is>
+      <c r="H641" s="1" t="n">
+        <v>44160.51091435185</v>
       </c>
       <c r="I641" t="n">
         <v>1</v>
@@ -47320,10 +46056,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H642" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:15:42</t>
-        </is>
+      <c r="H642" s="1" t="n">
+        <v>44160.51090277778</v>
       </c>
       <c r="I642" t="n">
         <v>4</v>
@@ -47395,10 +46129,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H643" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:15:42</t>
-        </is>
+      <c r="H643" s="1" t="n">
+        <v>44160.51090277778</v>
       </c>
       <c r="I643" t="n">
         <v>6</v>
@@ -47466,10 +46198,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H644" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:15:36</t>
-        </is>
+      <c r="H644" s="1" t="n">
+        <v>44160.51083333333</v>
       </c>
       <c r="I644" t="n">
         <v>1</v>
@@ -47541,10 +46271,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H645" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:15:36</t>
-        </is>
+      <c r="H645" s="1" t="n">
+        <v>44160.51083333333</v>
       </c>
       <c r="I645" t="n">
         <v>0</v>
@@ -47612,10 +46340,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H646" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:15:34</t>
-        </is>
+      <c r="H646" s="1" t="n">
+        <v>44160.51081018519</v>
       </c>
       <c r="I646" t="n">
         <v>1</v>
@@ -47683,10 +46409,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H647" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:15:33</t>
-        </is>
+      <c r="H647" s="1" t="n">
+        <v>44160.51079861111</v>
       </c>
       <c r="I647" t="n">
         <v>745</v>
@@ -47750,10 +46474,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H648" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:15:33</t>
-        </is>
+      <c r="H648" s="1" t="n">
+        <v>44160.51079861111</v>
       </c>
       <c r="I648" t="n">
         <v>0</v>
@@ -47821,10 +46543,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H649" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:15:30</t>
-        </is>
+      <c r="H649" s="1" t="n">
+        <v>44160.51076388889</v>
       </c>
       <c r="I649" t="n">
         <v>0</v>
@@ -47888,10 +46608,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H650" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:15:30</t>
-        </is>
+      <c r="H650" s="1" t="n">
+        <v>44160.51076388889</v>
       </c>
       <c r="I650" t="n">
         <v>1</v>
@@ -47959,10 +46677,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H651" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:15:27</t>
-        </is>
+      <c r="H651" s="1" t="n">
+        <v>44160.51072916666</v>
       </c>
       <c r="I651" t="n">
         <v>1</v>
@@ -48030,10 +46746,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H652" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:15:24</t>
-        </is>
+      <c r="H652" s="1" t="n">
+        <v>44160.51069444444</v>
       </c>
       <c r="I652" t="n">
         <v>1</v>
@@ -48101,10 +46815,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H653" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:15:24</t>
-        </is>
+      <c r="H653" s="1" t="n">
+        <v>44160.51069444444</v>
       </c>
       <c r="I653" t="n">
         <v>1</v>
@@ -48176,10 +46888,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H654" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:15:23</t>
-        </is>
+      <c r="H654" s="1" t="n">
+        <v>44160.51068287037</v>
       </c>
       <c r="I654" t="n">
         <v>0</v>
@@ -48243,10 +46953,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H655" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:15:21</t>
-        </is>
+      <c r="H655" s="1" t="n">
+        <v>44160.51065972223</v>
       </c>
       <c r="I655" t="n">
         <v>1</v>
@@ -48318,10 +47026,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H656" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:15:16</t>
-        </is>
+      <c r="H656" s="1" t="n">
+        <v>44160.51060185185</v>
       </c>
       <c r="I656" t="n">
         <v>0</v>
@@ -48397,10 +47103,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H657" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:15:15</t>
-        </is>
+      <c r="H657" s="1" t="n">
+        <v>44160.51059027778</v>
       </c>
       <c r="I657" t="n">
         <v>0</v>
@@ -48460,10 +47164,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H658" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:15:14</t>
-        </is>
+      <c r="H658" s="1" t="n">
+        <v>44160.5105787037</v>
       </c>
       <c r="I658" t="n">
         <v>0</v>
